--- a/每週買賣報表/ETF單週損益.xlsx
+++ b/每週買賣報表/ETF單週損益.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1068"/>
+  <dimension ref="A1:C1069"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -898,7 +898,7 @@
         <v>38121</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>-35.88011819333057</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1690,7 +1690,7 @@
         <v>38625</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>29.36444086886567</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1701,7 +1701,7 @@
         <v>38632</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>-1.17233294255573</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1712,7 +1712,7 @@
         <v>38639</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>-21.12676056338025</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1723,7 +1723,7 @@
         <v>38646</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>-38.76898481215024</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2526,7 +2526,7 @@
         <v>39157</v>
       </c>
       <c r="C195">
-        <v>0</v>
+        <v>19.84877126654062</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2537,7 +2537,7 @@
         <v>39164</v>
       </c>
       <c r="C196">
-        <v>0</v>
+        <v>15.44640098856966</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2548,7 +2548,7 @@
         <v>39171</v>
       </c>
       <c r="C197">
-        <v>0</v>
+        <v>-4.563431700638837</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2559,7 +2559,7 @@
         <v>39178</v>
       </c>
       <c r="C198">
-        <v>18.65284974093261</v>
+        <v>41.88023360401324</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2570,7 +2570,7 @@
         <v>39185</v>
       </c>
       <c r="C199">
-        <v>-2.543234994913566</v>
+        <v>-5.231407037924209</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2581,7 +2581,7 @@
         <v>39192</v>
       </c>
       <c r="C200">
-        <v>-37.57354236854246</v>
+        <v>-48.95419525862939</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2592,7 +2592,7 @@
         <v>39199</v>
       </c>
       <c r="C201">
-        <v>19.42636280033604</v>
+        <v>29.12039491181742</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2603,7 +2603,7 @@
         <v>39206</v>
       </c>
       <c r="C202">
-        <v>12.63682031106673</v>
+        <v>42.33979060809649</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2614,7 +2614,7 @@
         <v>39213</v>
       </c>
       <c r="C203">
-        <v>6.377082874550334</v>
+        <v>-3.821052323584905</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2625,7 +2625,7 @@
         <v>39220</v>
       </c>
       <c r="C204">
-        <v>-9.855944566010233</v>
+        <v>-11.62220891690815</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2636,7 +2636,7 @@
         <v>39227</v>
       </c>
       <c r="C205">
-        <v>35.41384288997583</v>
+        <v>51.63324719549055</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2966,7 +2966,7 @@
         <v>39437</v>
       </c>
       <c r="C235">
-        <v>0</v>
+        <v>5.982905982906007</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2977,7 +2977,7 @@
         <v>39444</v>
       </c>
       <c r="C236">
-        <v>0</v>
+        <v>38.23279524214087</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2988,7 +2988,7 @@
         <v>39451</v>
       </c>
       <c r="C237">
-        <v>0</v>
+        <v>-31.09656301145645</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -2999,7 +2999,7 @@
         <v>39458</v>
       </c>
       <c r="C238">
-        <v>0</v>
+        <v>-24.49324324324337</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3153,7 +3153,7 @@
         <v>39556</v>
       </c>
       <c r="C252">
-        <v>96.4137991319736</v>
+        <v>69.06988717425132</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3252,7 +3252,7 @@
         <v>39619</v>
       </c>
       <c r="C261">
-        <v>-48.10880841132432</v>
+        <v>-102.4918412747784</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3263,7 +3263,7 @@
         <v>39626</v>
       </c>
       <c r="C262">
-        <v>-30.59071729957815</v>
+        <v>-242.8597332963849</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3670,7 +3670,7 @@
         <v>39885</v>
       </c>
       <c r="C299">
-        <v>25.32928064842959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3681,7 +3681,7 @@
         <v>39892</v>
       </c>
       <c r="C300">
-        <v>27.85613452912004</v>
+        <v>15.06290768907038</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3692,7 +3692,7 @@
         <v>39899</v>
       </c>
       <c r="C301">
-        <v>439.1173230822596</v>
+        <v>124.869628702545</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3703,7 +3703,7 @@
         <v>39906</v>
       </c>
       <c r="C302">
-        <v>207.9943813556631</v>
+        <v>186.1019419263743</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3714,7 +3714,7 @@
         <v>39913</v>
       </c>
       <c r="C303">
-        <v>242.9173281044045</v>
+        <v>206.7182330817802</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3725,7 +3725,7 @@
         <v>39920</v>
       </c>
       <c r="C304">
-        <v>-70.23944375303891</v>
+        <v>-66.74599397137959</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3736,7 +3736,7 @@
         <v>39927</v>
       </c>
       <c r="C305">
-        <v>137.1960714825057</v>
+        <v>127.0920391368928</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3747,7 +3747,7 @@
         <v>39934</v>
       </c>
       <c r="C306">
-        <v>197.3049274191789</v>
+        <v>123.1080857255457</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3758,7 +3758,7 @@
         <v>39941</v>
       </c>
       <c r="C307">
-        <v>651.2637756707563</v>
+        <v>537.8939383283262</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3769,7 +3769,7 @@
         <v>39948</v>
       </c>
       <c r="C308">
-        <v>-86.97919647010212</v>
+        <v>-75.51787841852624</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3780,7 +3780,7 @@
         <v>39955</v>
       </c>
       <c r="C309">
-        <v>251.5406444962315</v>
+        <v>223.7145575397097</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -3791,7 +3791,7 @@
         <v>39962</v>
       </c>
       <c r="C310">
-        <v>231.089753018167</v>
+        <v>201.7609318111732</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -3802,7 +3802,7 @@
         <v>39969</v>
       </c>
       <c r="C311">
-        <v>-182.5806895716655</v>
+        <v>-149.7039772428983</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -3813,7 +3813,7 @@
         <v>39976</v>
       </c>
       <c r="C312">
-        <v>-351.0158343801251</v>
+        <v>-313.6220666747425</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -3824,7 +3824,7 @@
         <v>39983</v>
       </c>
       <c r="C313">
-        <v>-278.1177488445143</v>
+        <v>-215.1395263607004</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -3835,7 +3835,7 @@
         <v>39990</v>
       </c>
       <c r="C314">
-        <v>314.6132520083443</v>
+        <v>268.7589806515605</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -3846,7 +3846,7 @@
         <v>39997</v>
       </c>
       <c r="C315">
-        <v>217.9056369288743</v>
+        <v>189.6774087006459</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -3857,7 +3857,7 @@
         <v>40004</v>
       </c>
       <c r="C316">
-        <v>176.7548121502069</v>
+        <v>137.6192981315154</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -3868,7 +3868,7 @@
         <v>40011</v>
       </c>
       <c r="C317">
-        <v>140.7865252453927</v>
+        <v>113.242961445505</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -3879,7 +3879,7 @@
         <v>40018</v>
       </c>
       <c r="C318">
-        <v>140.8408047964617</v>
+        <v>112.394415299744</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -3890,7 +3890,7 @@
         <v>40025</v>
       </c>
       <c r="C319">
-        <v>96.05108442908067</v>
+        <v>73.7106588971659</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -3901,7 +3901,7 @@
         <v>40032</v>
       </c>
       <c r="C320">
-        <v>-212.7390809822042</v>
+        <v>-178.9201423765851</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -3912,7 +3912,7 @@
         <v>40039</v>
       </c>
       <c r="C321">
-        <v>215.2969267440496</v>
+        <v>175.4477075733442</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -3923,7 +3923,7 @@
         <v>40046</v>
       </c>
       <c r="C322">
-        <v>-421.8872987752098</v>
+        <v>-379.4222547565666</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -3934,7 +3934,7 @@
         <v>40053</v>
       </c>
       <c r="C323">
-        <v>102.3973545818178</v>
+        <v>125.0285223696849</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -3945,7 +3945,7 @@
         <v>40060</v>
       </c>
       <c r="C324">
-        <v>342.5592178587325</v>
+        <v>367.3074338222675</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -3956,7 +3956,7 @@
         <v>40067</v>
       </c>
       <c r="C325">
-        <v>128.9452369354168</v>
+        <v>166.79620760065</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -3967,7 +3967,7 @@
         <v>40074</v>
       </c>
       <c r="C326">
-        <v>135.0565911936276</v>
+        <v>125.4606315976681</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -3978,7 +3978,7 @@
         <v>40081</v>
       </c>
       <c r="C327">
-        <v>-77.70663681948761</v>
+        <v>-65.20038369292433</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -3989,7 +3989,7 @@
         <v>40088</v>
       </c>
       <c r="C328">
-        <v>5.243834219294662</v>
+        <v>8.283347897106147</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -4000,7 +4000,7 @@
         <v>40095</v>
       </c>
       <c r="C329">
-        <v>133.7462979752316</v>
+        <v>136.2869483817357</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -4011,7 +4011,7 @@
         <v>40102</v>
       </c>
       <c r="C330">
-        <v>160.4110938409639</v>
+        <v>117.1100240498278</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -4022,7 +4022,7 @@
         <v>40109</v>
       </c>
       <c r="C331">
-        <v>-90.92088618440047</v>
+        <v>-66.99510493440039</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -4033,7 +4033,7 @@
         <v>40116</v>
       </c>
       <c r="C332">
-        <v>-247.0664684540807</v>
+        <v>-227.0564634515795</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -4044,7 +4044,7 @@
         <v>40123</v>
       </c>
       <c r="C333">
-        <v>112.7173367738405</v>
+        <v>101.9975817968114</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -4055,7 +4055,7 @@
         <v>40130</v>
       </c>
       <c r="C334">
-        <v>145.3667823074959</v>
+        <v>114.0536509943645</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -4066,7 +4066,7 @@
         <v>40137</v>
       </c>
       <c r="C335">
-        <v>-21.05157503164934</v>
+        <v>-3.911516265733503</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -4077,7 +4077,7 @@
         <v>40144</v>
       </c>
       <c r="C336">
-        <v>-127.8778061671773</v>
+        <v>-146.8115381053935</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -4088,7 +4088,7 @@
         <v>40151</v>
       </c>
       <c r="C337">
-        <v>124.0716329689768</v>
+        <v>117.7146647538179</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -4099,7 +4099,7 @@
         <v>40158</v>
       </c>
       <c r="C338">
-        <v>81.06787560424837</v>
+        <v>74.75106316498682</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -4110,7 +4110,7 @@
         <v>40165</v>
       </c>
       <c r="C339">
-        <v>-42.26639552619689</v>
+        <v>-45.64640518336735</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -4121,7 +4121,7 @@
         <v>40172</v>
       </c>
       <c r="C340">
-        <v>241.0098649191631</v>
+        <v>205.398700337835</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -4132,7 +4132,7 @@
         <v>40179</v>
       </c>
       <c r="C341">
-        <v>221.5988676940714</v>
+        <v>184.8888305193503</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -4143,7 +4143,7 @@
         <v>40186</v>
       </c>
       <c r="C342">
-        <v>68.77994668011742</v>
+        <v>58.02243883610119</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -4154,7 +4154,7 @@
         <v>40193</v>
       </c>
       <c r="C343">
-        <v>63.46429459202954</v>
+        <v>44.39555845012268</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -4165,7 +4165,7 @@
         <v>40200</v>
       </c>
       <c r="C344">
-        <v>-395.4726108413748</v>
+        <v>-329.3281373861964</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -4176,7 +4176,7 @@
         <v>40207</v>
       </c>
       <c r="C345">
-        <v>-232.8424174953753</v>
+        <v>-201.1555582223091</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -4187,7 +4187,7 @@
         <v>40214</v>
       </c>
       <c r="C346">
-        <v>-302.1164312709133</v>
+        <v>-254.9556997983435</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -4198,7 +4198,7 @@
         <v>40221</v>
       </c>
       <c r="C347">
-        <v>98.94958545564609</v>
+        <v>64.60615111221176</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -4220,7 +4220,7 @@
         <v>40235</v>
       </c>
       <c r="C349">
-        <v>-32.90739794606346</v>
+        <v>-22.16521044606351</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -4231,7 +4231,7 @@
         <v>40242</v>
       </c>
       <c r="C350">
-        <v>67.91860407942755</v>
+        <v>49.16243428673263</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -4242,7 +4242,7 @@
         <v>40249</v>
       </c>
       <c r="C351">
-        <v>35.06218883990148</v>
+        <v>22.94978573912629</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -4253,7 +4253,7 @@
         <v>40256</v>
       </c>
       <c r="C352">
-        <v>39.6616244092646</v>
+        <v>23.8645923365026</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -4264,7 +4264,7 @@
         <v>40263</v>
       </c>
       <c r="C353">
-        <v>9.775119028081855</v>
+        <v>8.832611959278859</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -4275,7 +4275,7 @@
         <v>40270</v>
       </c>
       <c r="C354">
-        <v>36.34325324756531</v>
+        <v>23.1605790479419</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -4286,7 +4286,7 @@
         <v>40277</v>
       </c>
       <c r="C355">
-        <v>23.08291405589297</v>
+        <v>17.56749832937086</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -4297,7 +4297,7 @@
         <v>40284</v>
       </c>
       <c r="C356">
-        <v>25.6079718242936</v>
+        <v>1.854331594339432</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -4308,7 +4308,7 @@
         <v>40291</v>
       </c>
       <c r="C357">
-        <v>-56.16869596104607</v>
+        <v>-11.68676747187495</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -4319,7 +4319,7 @@
         <v>40298</v>
       </c>
       <c r="C358">
-        <v>23.20028055407312</v>
+        <v>11.89323999361606</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -4330,7 +4330,7 @@
         <v>40305</v>
       </c>
       <c r="C359">
-        <v>-360.3009399739025</v>
+        <v>-96.01878544726631</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -4341,7 +4341,7 @@
         <v>40312</v>
       </c>
       <c r="C360">
-        <v>153.3543867201747</v>
+        <v>41.79116278191574</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -4352,7 +4352,7 @@
         <v>40319</v>
       </c>
       <c r="C361">
-        <v>-376.2235701857727</v>
+        <v>-107.5659634117205</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -4363,7 +4363,7 @@
         <v>40326</v>
       </c>
       <c r="C362">
-        <v>18.53384465844464</v>
+        <v>-1.924927815207059</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -4374,7 +4374,7 @@
         <v>40333</v>
       </c>
       <c r="C363">
-        <v>8.756214475113421</v>
+        <v>-0.9643201542912041</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4385,7 +4385,7 @@
         <v>40340</v>
       </c>
       <c r="C364">
-        <v>2.544963736299488</v>
+        <v>6.756756756756785</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -4396,7 +4396,7 @@
         <v>40347</v>
       </c>
       <c r="C365">
-        <v>40.5731781144908</v>
+        <v>18.2166826462128</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -4407,7 +4407,7 @@
         <v>40354</v>
       </c>
       <c r="C366">
-        <v>7.573025604038784</v>
+        <v>-1.883239171374725</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -4418,7 +4418,7 @@
         <v>40361</v>
       </c>
       <c r="C367">
-        <v>-25.82740488710159</v>
+        <v>-9.43396226415091</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -4429,7 +4429,7 @@
         <v>40368</v>
       </c>
       <c r="C368">
-        <v>90.83333333333336</v>
+        <v>43.80952380952388</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -4440,7 +4440,7 @@
         <v>40375</v>
       </c>
       <c r="C369">
-        <v>48.04778636333354</v>
+        <v>44.068252537296</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -4451,7 +4451,7 @@
         <v>40382</v>
       </c>
       <c r="C370">
-        <v>38.45265608639124</v>
+        <v>12.97134238310702</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -4462,7 +4462,7 @@
         <v>40389</v>
       </c>
       <c r="C371">
-        <v>10.05142241981841</v>
+        <v>11.15578465063009</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -4473,7 +4473,7 @@
         <v>40396</v>
       </c>
       <c r="C372">
-        <v>127.1648859787647</v>
+        <v>84.0471413684827</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -4484,7 +4484,7 @@
         <v>40403</v>
       </c>
       <c r="C373">
-        <v>-3.696021440861986</v>
+        <v>-8.46549679857263</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -4495,7 +4495,7 @@
         <v>40410</v>
       </c>
       <c r="C374">
-        <v>-0.8006964231649272</v>
+        <v>1.836434378522874</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -4506,7 +4506,7 @@
         <v>40417</v>
       </c>
       <c r="C375">
-        <v>-114.899776158533</v>
+        <v>-84.22817383172166</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -4517,7 +4517,7 @@
         <v>40424</v>
       </c>
       <c r="C376">
-        <v>76.60419146384389</v>
+        <v>61.87424056368005</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -4528,7 +4528,7 @@
         <v>40431</v>
       </c>
       <c r="C377">
-        <v>47.51348909102769</v>
+        <v>36.22316651038268</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -4539,7 +4539,7 @@
         <v>40438</v>
       </c>
       <c r="C378">
-        <v>186.3683861898678</v>
+        <v>153.4071953339401</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -4550,7 +4550,7 @@
         <v>40445</v>
       </c>
       <c r="C379">
-        <v>-6.848753308766927</v>
+        <v>-8.907425465225966</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -4561,7 +4561,7 @@
         <v>40452</v>
       </c>
       <c r="C380">
-        <v>31.78039041411813</v>
+        <v>27.67150494930037</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -4572,7 +4572,7 @@
         <v>40459</v>
       </c>
       <c r="C381">
-        <v>41.20181337626616</v>
+        <v>20.22994636859352</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -4627,7 +4627,7 @@
         <v>40494</v>
       </c>
       <c r="C386">
-        <v>-78.65671891673978</v>
+        <v>-67.49338166644591</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -4638,7 +4638,7 @@
         <v>40501</v>
       </c>
       <c r="C387">
-        <v>-32.27133146681901</v>
+        <v>-39.40145624400266</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -4649,7 +4649,7 @@
         <v>40508</v>
       </c>
       <c r="C388">
-        <v>18.28284740771897</v>
+        <v>1.763673366420968</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -4660,7 +4660,7 @@
         <v>40515</v>
       </c>
       <c r="C389">
-        <v>242.9830683537626</v>
+        <v>212.2227665545751</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -4671,7 +4671,7 @@
         <v>40522</v>
       </c>
       <c r="C390">
-        <v>22.74584712913484</v>
+        <v>10.35845974174752</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -4682,7 +4682,7 @@
         <v>40529</v>
       </c>
       <c r="C391">
-        <v>76.71025092218781</v>
+        <v>70.59234213464613</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -4693,7 +4693,7 @@
         <v>40536</v>
       </c>
       <c r="C392">
-        <v>31.11405587027461</v>
+        <v>28.35009788243599</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -4704,7 +4704,7 @@
         <v>40543</v>
       </c>
       <c r="C393">
-        <v>120.5790256017066</v>
+        <v>125.5404368475721</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -4715,7 +4715,7 @@
         <v>40550</v>
       </c>
       <c r="C394">
-        <v>-115.6097524085281</v>
+        <v>-97.88122055257239</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -4726,7 +4726,7 @@
         <v>40557</v>
       </c>
       <c r="C395">
-        <v>149.2302803335954</v>
+        <v>128.3616960132343</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -4737,7 +4737,7 @@
         <v>40564</v>
       </c>
       <c r="C396">
-        <v>-12.80789658693728</v>
+        <v>-11.1504380234013</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -4748,7 +4748,7 @@
         <v>40571</v>
       </c>
       <c r="C397">
-        <v>110.8743265056218</v>
+        <v>83.75755838165946</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -4770,7 +4770,7 @@
         <v>40585</v>
       </c>
       <c r="C399">
-        <v>-396.8094451643175</v>
+        <v>-329.4603072332829</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -4781,7 +4781,7 @@
         <v>40592</v>
       </c>
       <c r="C400">
-        <v>186.7577923892728</v>
+        <v>150.9403458265922</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -4792,7 +4792,7 @@
         <v>40599</v>
       </c>
       <c r="C401">
-        <v>-149.2479457955434</v>
+        <v>-133.6316602406075</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -4803,7 +4803,7 @@
         <v>40606</v>
       </c>
       <c r="C402">
-        <v>108.270061178662</v>
+        <v>85.04059942228805</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -4814,7 +4814,7 @@
         <v>40613</v>
       </c>
       <c r="C403">
-        <v>-142.6815928429394</v>
+        <v>-106.690452200636</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -4825,7 +4825,7 @@
         <v>40620</v>
       </c>
       <c r="C404">
-        <v>-165.4087179076383</v>
+        <v>-136.9922127236862</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -4836,7 +4836,7 @@
         <v>40627</v>
       </c>
       <c r="C405">
-        <v>35.8381502890174</v>
+        <v>90.88841645115195</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -4847,7 +4847,7 @@
         <v>40634</v>
       </c>
       <c r="C406">
-        <v>23.4374999999999</v>
+        <v>36.42799524572449</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -4858,7 +4858,7 @@
         <v>40641</v>
       </c>
       <c r="C407">
-        <v>14.17666303162495</v>
+        <v>59.50403681056933</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -4957,7 +4957,7 @@
         <v>40704</v>
       </c>
       <c r="C416">
-        <v>-86.37375341389937</v>
+        <v>-70.6316244783672</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -4968,7 +4968,7 @@
         <v>40711</v>
       </c>
       <c r="C417">
-        <v>-92.87460470384701</v>
+        <v>-79.92715611283407</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -4979,7 +4979,7 @@
         <v>40718</v>
       </c>
       <c r="C418">
-        <v>-35.06564434871548</v>
+        <v>-28.89280484254263</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -4990,7 +4990,7 @@
         <v>40725</v>
       </c>
       <c r="C419">
-        <v>139.9566780945205</v>
+        <v>108.1243799578747</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -5001,7 +5001,7 @@
         <v>40732</v>
       </c>
       <c r="C420">
-        <v>31.38695913779018</v>
+        <v>17.09049563139429</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -5012,7 +5012,7 @@
         <v>40739</v>
       </c>
       <c r="C421">
-        <v>-36.12995963631309</v>
+        <v>-24.26052343453267</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -5023,7 +5023,7 @@
         <v>40746</v>
       </c>
       <c r="C422">
-        <v>107.282231923102</v>
+        <v>87.76271240358253</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -5034,7 +5034,7 @@
         <v>40753</v>
       </c>
       <c r="C423">
-        <v>-55.77499208172281</v>
+        <v>-45.46571373120731</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -5045,7 +5045,7 @@
         <v>40760</v>
       </c>
       <c r="C424">
-        <v>-334.5945250809718</v>
+        <v>-250.517144128591</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -5331,7 +5331,7 @@
         <v>40942</v>
       </c>
       <c r="C450">
-        <v>64.05990016638933</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -5342,7 +5342,7 @@
         <v>40949</v>
       </c>
       <c r="C451">
-        <v>98.68647984792821</v>
+        <v>61.1562135041025</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -5353,7 +5353,7 @@
         <v>40956</v>
       </c>
       <c r="C452">
-        <v>-43.22616460022694</v>
+        <v>-10.55405258155704</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -5364,7 +5364,7 @@
         <v>40963</v>
       </c>
       <c r="C453">
-        <v>37.70797306203058</v>
+        <v>12.32595320319408</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -5375,7 +5375,7 @@
         <v>40970</v>
       </c>
       <c r="C454">
-        <v>148.3925511844663</v>
+        <v>104.804700019347</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -5386,7 +5386,7 @@
         <v>40977</v>
       </c>
       <c r="C455">
-        <v>-128.2025182460756</v>
+        <v>-101.3301851289616</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -5397,7 +5397,7 @@
         <v>40984</v>
       </c>
       <c r="C456">
-        <v>73.49611602703968</v>
+        <v>61.40933430111995</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -5408,7 +5408,7 @@
         <v>40991</v>
       </c>
       <c r="C457">
-        <v>-39.8927620495121</v>
+        <v>-21.38857120489571</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -5419,7 +5419,7 @@
         <v>40998</v>
       </c>
       <c r="C458">
-        <v>-198.2408854527779</v>
+        <v>-138.7338228057245</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -5430,7 +5430,7 @@
         <v>41005</v>
       </c>
       <c r="C459">
-        <v>-171.2066863315463</v>
+        <v>-133.429222398967</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -5441,7 +5441,7 @@
         <v>41012</v>
       </c>
       <c r="C460">
-        <v>102.3201935251403</v>
+        <v>52.41243099157015</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -5452,7 +5452,7 @@
         <v>41019</v>
       </c>
       <c r="C461">
-        <v>-217.7541894425261</v>
+        <v>-136.879741262101</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -5463,7 +5463,7 @@
         <v>41026</v>
       </c>
       <c r="C462">
-        <v>-59.44948445467475</v>
+        <v>-26.98320228963487</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -5474,7 +5474,7 @@
         <v>41033</v>
       </c>
       <c r="C463">
-        <v>211.5871173132598</v>
+        <v>140.0813328167008</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -5485,7 +5485,7 @@
         <v>41040</v>
       </c>
       <c r="C464">
-        <v>-232.9347452662167</v>
+        <v>-176.7915828730543</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -5496,7 +5496,7 @@
         <v>41047</v>
       </c>
       <c r="C465">
-        <v>-243.5904675999315</v>
+        <v>-177.7204564822291</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -5507,7 +5507,7 @@
         <v>41054</v>
       </c>
       <c r="C466">
-        <v>0</v>
+        <v>-31.84465911704071</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -5518,7 +5518,7 @@
         <v>41061</v>
       </c>
       <c r="C467">
-        <v>0</v>
+        <v>35.44202564728844</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -5529,7 +5529,7 @@
         <v>41068</v>
       </c>
       <c r="C468">
-        <v>0</v>
+        <v>-31.57727152871397</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -5540,7 +5540,7 @@
         <v>41075</v>
       </c>
       <c r="C469">
-        <v>0</v>
+        <v>41.43297380585511</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -5551,7 +5551,7 @@
         <v>41082</v>
       </c>
       <c r="C470">
-        <v>0</v>
+        <v>16.02325671965676</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -5562,7 +5562,7 @@
         <v>41089</v>
       </c>
       <c r="C471">
-        <v>0</v>
+        <v>13.78375467342565</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -5573,7 +5573,7 @@
         <v>41096</v>
       </c>
       <c r="C472">
-        <v>0</v>
+        <v>49.93156650491466</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -5584,7 +5584,7 @@
         <v>41103</v>
       </c>
       <c r="C473">
-        <v>0</v>
+        <v>-40.26544802553906</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -5595,7 +5595,7 @@
         <v>41110</v>
       </c>
       <c r="C474">
-        <v>0</v>
+        <v>1.073193505044416</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -5606,7 +5606,7 @@
         <v>41117</v>
       </c>
       <c r="C475">
-        <v>0</v>
+        <v>7.230083974190611</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -5617,7 +5617,7 @@
         <v>41124</v>
       </c>
       <c r="C476">
-        <v>0</v>
+        <v>14.37841144362892</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -5628,7 +5628,7 @@
         <v>41131</v>
       </c>
       <c r="C477">
-        <v>27.99999999999999</v>
+        <v>98.07506352706727</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -5639,7 +5639,7 @@
         <v>41138</v>
       </c>
       <c r="C478">
-        <v>23.19008616939943</v>
+        <v>29.31368525782264</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -5650,7 +5650,7 @@
         <v>41145</v>
       </c>
       <c r="C479">
-        <v>-3.343306112010056</v>
+        <v>-5.684355687527544</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -5661,7 +5661,7 @@
         <v>41152</v>
       </c>
       <c r="C480">
-        <v>-47.33600522136378</v>
+        <v>-52.39988262528493</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -5672,7 +5672,7 @@
         <v>41159</v>
       </c>
       <c r="C481">
-        <v>1.41729967024386</v>
+        <v>6.372488354696742</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -5683,7 +5683,7 @@
         <v>41166</v>
       </c>
       <c r="C482">
-        <v>165.1964088664062</v>
+        <v>167.7675909048756</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -5760,7 +5760,7 @@
         <v>41215</v>
       </c>
       <c r="C489">
-        <v>23.21268212997238</v>
+        <v>20.67030924861636</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -5771,7 +5771,7 @@
         <v>41222</v>
       </c>
       <c r="C490">
-        <v>30.31672125613722</v>
+        <v>36.21294767123143</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -5782,7 +5782,7 @@
         <v>41229</v>
       </c>
       <c r="C491">
-        <v>-70.89080380551287</v>
+        <v>-80.8556338172361</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -5793,7 +5793,7 @@
         <v>41236</v>
       </c>
       <c r="C492">
-        <v>64.56522709519038</v>
+        <v>107.032750995694</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -5804,7 +5804,7 @@
         <v>41243</v>
       </c>
       <c r="C493">
-        <v>72.91597722864756</v>
+        <v>147.29744645598</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -5815,7 +5815,7 @@
         <v>41250</v>
       </c>
       <c r="C494">
-        <v>15.9049807302604</v>
+        <v>53.52064415767347</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -5826,7 +5826,7 @@
         <v>41257</v>
       </c>
       <c r="C495">
-        <v>36.4560271750964</v>
+        <v>25.02483414953904</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -5837,7 +5837,7 @@
         <v>41264</v>
       </c>
       <c r="C496">
-        <v>-104.9799920441323</v>
+        <v>-93.95980824956322</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -5848,7 +5848,7 @@
         <v>41271</v>
       </c>
       <c r="C497">
-        <v>84.3286677932967</v>
+        <v>93.91286262534352</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -5859,7 +5859,7 @@
         <v>41278</v>
       </c>
       <c r="C498">
-        <v>35.70654118853977</v>
+        <v>33.91632096925991</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -5870,7 +5870,7 @@
         <v>41285</v>
       </c>
       <c r="C499">
-        <v>28.28229301695901</v>
+        <v>31.70061001173636</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -5881,7 +5881,7 @@
         <v>41292</v>
       </c>
       <c r="C500">
-        <v>-46.98149945142915</v>
+        <v>-57.92057567427922</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -5892,7 +5892,7 @@
         <v>41299</v>
       </c>
       <c r="C501">
-        <v>-24.86612290784801</v>
+        <v>-11.55194578352673</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -5903,7 +5903,7 @@
         <v>41306</v>
       </c>
       <c r="C502">
-        <v>156.3936594710452</v>
+        <v>156.5928551714249</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -5914,7 +5914,7 @@
         <v>41313</v>
       </c>
       <c r="C503">
-        <v>63.88750583315866</v>
+        <v>55.53218481292993</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -5936,7 +5936,7 @@
         <v>41327</v>
       </c>
       <c r="C505">
-        <v>23.73267851908085</v>
+        <v>18.49935972274413</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -5947,7 +5947,7 @@
         <v>41334</v>
       </c>
       <c r="C506">
-        <v>2.883967096418576</v>
+        <v>6.788522410952193</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -5958,7 +5958,7 @@
         <v>41341</v>
       </c>
       <c r="C507">
-        <v>71.35433430219467</v>
+        <v>64.82123325689857</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -5969,7 +5969,7 @@
         <v>41348</v>
       </c>
       <c r="C508">
-        <v>-79.08756873151599</v>
+        <v>-68.70245406254159</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -5980,7 +5980,7 @@
         <v>41355</v>
       </c>
       <c r="C509">
-        <v>-100.8504493439017</v>
+        <v>-78.55049306930604</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -5991,7 +5991,7 @@
         <v>41362</v>
       </c>
       <c r="C510">
-        <v>84.32696431547035</v>
+        <v>66.88510385035406</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -6002,7 +6002,7 @@
         <v>41369</v>
       </c>
       <c r="C511">
-        <v>5.338795468808121</v>
+        <v>3.140993271005891</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -6013,7 +6013,7 @@
         <v>41376</v>
       </c>
       <c r="C512">
-        <v>-86.17931814895223</v>
+        <v>-70.38984446474173</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -6024,7 +6024,7 @@
         <v>41383</v>
       </c>
       <c r="C513">
-        <v>64.66793320574784</v>
+        <v>44.16882447134512</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -6035,7 +6035,7 @@
         <v>41390</v>
       </c>
       <c r="C514">
-        <v>87.81794374863527</v>
+        <v>77.33759440365702</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -6046,7 +6046,7 @@
         <v>41397</v>
       </c>
       <c r="C515">
-        <v>85.55890345625659</v>
+        <v>69.13712298953234</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -6057,7 +6057,7 @@
         <v>41404</v>
       </c>
       <c r="C516">
-        <v>86.54745579039198</v>
+        <v>70.39099320535801</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -6068,7 +6068,7 @@
         <v>41411</v>
       </c>
       <c r="C517">
-        <v>75.0971772248527</v>
+        <v>73.42353705748857</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -6079,7 +6079,7 @@
         <v>41418</v>
       </c>
       <c r="C518">
-        <v>-142.7241486600554</v>
+        <v>-108.8895621938899</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -6090,7 +6090,7 @@
         <v>41425</v>
       </c>
       <c r="C519">
-        <v>40.33874229466616</v>
+        <v>20.45115042263845</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -6101,7 +6101,7 @@
         <v>41432</v>
       </c>
       <c r="C520">
-        <v>-125.1265993312675</v>
+        <v>-108.5941703359304</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -6112,7 +6112,7 @@
         <v>41439</v>
       </c>
       <c r="C521">
-        <v>-102.3321847325918</v>
+        <v>-82.07356404293664</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -6123,7 +6123,7 @@
         <v>41446</v>
       </c>
       <c r="C522">
-        <v>-77.37904087886717</v>
+        <v>-54.94173335576988</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -6266,7 +6266,7 @@
         <v>41537</v>
       </c>
       <c r="C535">
-        <v>47.66842637713658</v>
+        <v>40.32897683585234</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -6277,7 +6277,7 @@
         <v>41544</v>
       </c>
       <c r="C536">
-        <v>-12.0775366123038</v>
+        <v>-7.827384821168382</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -6288,7 +6288,7 @@
         <v>41551</v>
       </c>
       <c r="C537">
-        <v>104.6287385084219</v>
+        <v>89.38483606939747</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -6299,7 +6299,7 @@
         <v>41558</v>
       </c>
       <c r="C538">
-        <v>67.95377122356324</v>
+        <v>64.95076822056019</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -6310,7 +6310,7 @@
         <v>41565</v>
       </c>
       <c r="C539">
-        <v>-28.5439842342212</v>
+        <v>-35.72961297673623</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -6321,7 +6321,7 @@
         <v>41572</v>
       </c>
       <c r="C540">
-        <v>-75.27616196192724</v>
+        <v>-59.81837361472144</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -6332,7 +6332,7 @@
         <v>41579</v>
       </c>
       <c r="C541">
-        <v>28.92253231182222</v>
+        <v>18.65683182873033</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -6343,7 +6343,7 @@
         <v>41586</v>
       </c>
       <c r="C542">
-        <v>-126.4358392311815</v>
+        <v>-103.722151245527</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -6354,7 +6354,7 @@
         <v>41593</v>
       </c>
       <c r="C543">
-        <v>-24.25842890447366</v>
+        <v>-20.28289373627787</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -6365,7 +6365,7 @@
         <v>41600</v>
       </c>
       <c r="C544">
-        <v>-24.13019297403412</v>
+        <v>-12.77004559914933</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -6376,7 +6376,7 @@
         <v>41607</v>
       </c>
       <c r="C545">
-        <v>161.7549588273653</v>
+        <v>120.7611700074896</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -6387,7 +6387,7 @@
         <v>41614</v>
       </c>
       <c r="C546">
-        <v>-22.55079263103409</v>
+        <v>-17.18086423007944</v>
       </c>
     </row>
     <row r="547" spans="1:3">
@@ -6398,7 +6398,7 @@
         <v>41621</v>
       </c>
       <c r="C547">
-        <v>-5.321200510283927</v>
+        <v>-2.021860378310127</v>
       </c>
     </row>
     <row r="548" spans="1:3">
@@ -6409,7 +6409,7 @@
         <v>41628</v>
       </c>
       <c r="C548">
-        <v>28.43914748476861</v>
+        <v>25.42981856511765</v>
       </c>
     </row>
     <row r="549" spans="1:3">
@@ -6420,7 +6420,7 @@
         <v>41635</v>
       </c>
       <c r="C549">
-        <v>60.22776267630146</v>
+        <v>46.72641254128787</v>
       </c>
     </row>
     <row r="550" spans="1:3">
@@ -6431,7 +6431,7 @@
         <v>41642</v>
       </c>
       <c r="C550">
-        <v>-0.4317326687211427</v>
+        <v>3.712731511267032</v>
       </c>
     </row>
     <row r="551" spans="1:3">
@@ -6442,7 +6442,7 @@
         <v>41649</v>
       </c>
       <c r="C551">
-        <v>-21.06846537253139</v>
+        <v>-18.3930789278226</v>
       </c>
     </row>
     <row r="552" spans="1:3">
@@ -6453,7 +6453,7 @@
         <v>41656</v>
       </c>
       <c r="C552">
-        <v>74.81936280541802</v>
+        <v>56.33948203045514</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -6464,7 +6464,7 @@
         <v>41663</v>
       </c>
       <c r="C553">
-        <v>6.435241025796103</v>
+        <v>7.898512901710773</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -6475,7 +6475,7 @@
         <v>41670</v>
       </c>
       <c r="C554">
-        <v>-112.0723763570876</v>
+        <v>-91.84963309800209</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -6486,7 +6486,7 @@
         <v>41677</v>
       </c>
       <c r="C555">
-        <v>-80.5684647357059</v>
+        <v>-65.31270643477865</v>
       </c>
     </row>
     <row r="556" spans="1:3">
@@ -6497,7 +6497,7 @@
         <v>41684</v>
       </c>
       <c r="C556">
-        <v>119.2142467863114</v>
+        <v>92.78654326261767</v>
       </c>
     </row>
     <row r="557" spans="1:3">
@@ -6508,7 +6508,7 @@
         <v>41691</v>
       </c>
       <c r="C557">
-        <v>46.40940004108974</v>
+        <v>42.26616239681627</v>
       </c>
     </row>
     <row r="558" spans="1:3">
@@ -6519,7 +6519,7 @@
         <v>41698</v>
       </c>
       <c r="C558">
-        <v>7.634701725164511</v>
+        <v>4.098008533298982</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -6530,7 +6530,7 @@
         <v>41705</v>
       </c>
       <c r="C559">
-        <v>64.52092043784322</v>
+        <v>48.0745180883571</v>
       </c>
     </row>
     <row r="560" spans="1:3">
@@ -6541,7 +6541,7 @@
         <v>41712</v>
       </c>
       <c r="C560">
-        <v>-26.91870244685011</v>
+        <v>-21.14002576381044</v>
       </c>
     </row>
     <row r="561" spans="1:3">
@@ -6552,7 +6552,7 @@
         <v>41719</v>
       </c>
       <c r="C561">
-        <v>-81.63341169288032</v>
+        <v>-70.59011032699843</v>
       </c>
     </row>
     <row r="562" spans="1:3">
@@ -6563,7 +6563,7 @@
         <v>41726</v>
       </c>
       <c r="C562">
-        <v>123.4418790721012</v>
+        <v>100.8147853312844</v>
       </c>
     </row>
     <row r="563" spans="1:3">
@@ -6574,7 +6574,7 @@
         <v>41733</v>
       </c>
       <c r="C563">
-        <v>85.22149684152797</v>
+        <v>70.56632442773471</v>
       </c>
     </row>
     <row r="564" spans="1:3">
@@ -6585,7 +6585,7 @@
         <v>41740</v>
       </c>
       <c r="C564">
-        <v>9.168524087366652</v>
+        <v>6.053259289858882</v>
       </c>
     </row>
     <row r="565" spans="1:3">
@@ -6596,7 +6596,7 @@
         <v>41747</v>
       </c>
       <c r="C565">
-        <v>57.80474691920953</v>
+        <v>46.79401851717677</v>
       </c>
     </row>
     <row r="566" spans="1:3">
@@ -6607,7 +6607,7 @@
         <v>41754</v>
       </c>
       <c r="C566">
-        <v>-107.3218336978962</v>
+        <v>-91.40449217318248</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -6618,7 +6618,7 @@
         <v>41761</v>
       </c>
       <c r="C567">
-        <v>62.96646849682702</v>
+        <v>54.73718359330832</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -6629,7 +6629,7 @@
         <v>41768</v>
       </c>
       <c r="C568">
-        <v>11.17149610976805</v>
+        <v>6.949711702225169</v>
       </c>
     </row>
     <row r="569" spans="1:3">
@@ -6640,7 +6640,7 @@
         <v>41775</v>
       </c>
       <c r="C569">
-        <v>5.983368312329435</v>
+        <v>5.422830195737419</v>
       </c>
     </row>
     <row r="570" spans="1:3">
@@ -6651,7 +6651,7 @@
         <v>41782</v>
       </c>
       <c r="C570">
-        <v>90.6847054479632</v>
+        <v>72.75753457961585</v>
       </c>
     </row>
     <row r="571" spans="1:3">
@@ -6662,7 +6662,7 @@
         <v>41789</v>
       </c>
       <c r="C571">
-        <v>103.6237082835271</v>
+        <v>70.05461299492168</v>
       </c>
     </row>
     <row r="572" spans="1:3">
@@ -6673,7 +6673,7 @@
         <v>41796</v>
       </c>
       <c r="C572">
-        <v>42.08241423930684</v>
+        <v>19.32394391581191</v>
       </c>
     </row>
     <row r="573" spans="1:3">
@@ -6684,7 +6684,7 @@
         <v>41803</v>
       </c>
       <c r="C573">
-        <v>56.26255823960091</v>
+        <v>40.34327116638224</v>
       </c>
     </row>
     <row r="574" spans="1:3">
@@ -6695,7 +6695,7 @@
         <v>41810</v>
       </c>
       <c r="C574">
-        <v>113.0574003055919</v>
+        <v>51.48826017541388</v>
       </c>
     </row>
     <row r="575" spans="1:3">
@@ -6706,7 +6706,7 @@
         <v>41817</v>
       </c>
       <c r="C575">
-        <v>1.882087720568986</v>
+        <v>24.30048604644139</v>
       </c>
     </row>
     <row r="576" spans="1:3">
@@ -6717,7 +6717,7 @@
         <v>41824</v>
       </c>
       <c r="C576">
-        <v>218.906095830197</v>
+        <v>137.3334715984417</v>
       </c>
     </row>
     <row r="577" spans="1:3">
@@ -6728,7 +6728,7 @@
         <v>41831</v>
       </c>
       <c r="C577">
-        <v>1.669856918291346</v>
+        <v>17.66624571545391</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -6739,7 +6739,7 @@
         <v>41838</v>
       </c>
       <c r="C578">
-        <v>-29.19492428635625</v>
+        <v>14.16492132171136</v>
       </c>
     </row>
     <row r="579" spans="1:3">
@@ -6750,7 +6750,7 @@
         <v>41845</v>
       </c>
       <c r="C579">
-        <v>59.30676047926066</v>
+        <v>37.69753174179318</v>
       </c>
     </row>
     <row r="580" spans="1:3">
@@ -6761,7 +6761,7 @@
         <v>41852</v>
       </c>
       <c r="C580">
-        <v>-149.6647810621254</v>
+        <v>-95.81467579540679</v>
       </c>
     </row>
     <row r="581" spans="1:3">
@@ -6772,7 +6772,7 @@
         <v>41859</v>
       </c>
       <c r="C581">
-        <v>-145.8305998899695</v>
+        <v>-67.44040299177391</v>
       </c>
     </row>
     <row r="582" spans="1:3">
@@ -6783,7 +6783,7 @@
         <v>41866</v>
       </c>
       <c r="C582">
-        <v>129.372309558316</v>
+        <v>87.17137810129401</v>
       </c>
     </row>
     <row r="583" spans="1:3">
@@ -6794,7 +6794,7 @@
         <v>41873</v>
       </c>
       <c r="C583">
-        <v>204.1381110162016</v>
+        <v>146.3014342768417</v>
       </c>
     </row>
     <row r="584" spans="1:3">
@@ -6805,7 +6805,7 @@
         <v>41880</v>
       </c>
       <c r="C584">
-        <v>61.20312342513629</v>
+        <v>50.14427804809473</v>
       </c>
     </row>
     <row r="585" spans="1:3">
@@ -6816,7 +6816,7 @@
         <v>41887</v>
       </c>
       <c r="C585">
-        <v>-37.53484874987114</v>
+        <v>-26.05949254025293</v>
       </c>
     </row>
     <row r="586" spans="1:3">
@@ -6827,7 +6827,7 @@
         <v>41894</v>
       </c>
       <c r="C586">
-        <v>-142.9152959746021</v>
+        <v>-108.6478050083412</v>
       </c>
     </row>
     <row r="587" spans="1:3">
@@ -6838,7 +6838,7 @@
         <v>41901</v>
       </c>
       <c r="C587">
-        <v>12.39341506291968</v>
+        <v>6.475161877835975</v>
       </c>
     </row>
     <row r="588" spans="1:3">
@@ -6849,7 +6849,7 @@
         <v>41908</v>
       </c>
       <c r="C588">
-        <v>-267.7079634542591</v>
+        <v>-193.6636729680536</v>
       </c>
     </row>
     <row r="589" spans="1:3">
@@ -6860,7 +6860,7 @@
         <v>41915</v>
       </c>
       <c r="C589">
-        <v>61.82898309679497</v>
+        <v>69.9700634485698</v>
       </c>
     </row>
     <row r="590" spans="1:3">
@@ -6871,7 +6871,7 @@
         <v>41922</v>
       </c>
       <c r="C590">
-        <v>-51.4017506451662</v>
+        <v>-79.56108268297278</v>
       </c>
     </row>
     <row r="591" spans="1:3">
@@ -6882,7 +6882,7 @@
         <v>41929</v>
       </c>
       <c r="C591">
-        <v>-198.8709860202412</v>
+        <v>-278.7790808174344</v>
       </c>
     </row>
     <row r="592" spans="1:3">
@@ -6893,7 +6893,7 @@
         <v>41936</v>
       </c>
       <c r="C592">
-        <v>20.23121387283228</v>
+        <v>39.7807251350506</v>
       </c>
     </row>
     <row r="593" spans="1:3">
@@ -6904,7 +6904,7 @@
         <v>41943</v>
       </c>
       <c r="C593">
-        <v>41.54863078375821</v>
+        <v>77.18848072123218</v>
       </c>
     </row>
     <row r="594" spans="1:3">
@@ -6915,7 +6915,7 @@
         <v>41950</v>
       </c>
       <c r="C594">
-        <v>-8.159564823209417</v>
+        <v>-9.568298974950215</v>
       </c>
     </row>
     <row r="595" spans="1:3">
@@ -6926,7 +6926,7 @@
         <v>41957</v>
       </c>
       <c r="C595">
-        <v>-0.9140767824497064</v>
+        <v>6.744125555317375</v>
       </c>
     </row>
     <row r="596" spans="1:3">
@@ -6937,7 +6937,7 @@
         <v>41964</v>
       </c>
       <c r="C596">
-        <v>10.06404391582794</v>
+        <v>24.46404391582792</v>
       </c>
     </row>
     <row r="597" spans="1:3">
@@ -6948,7 +6948,7 @@
         <v>41971</v>
       </c>
       <c r="C597">
-        <v>0.9057971014494171</v>
+        <v>13.7212545146986</v>
       </c>
     </row>
     <row r="598" spans="1:3">
@@ -7047,7 +7047,7 @@
         <v>42034</v>
       </c>
       <c r="C606">
-        <v>-32.0786583610359</v>
+        <v>-23.15672527553406</v>
       </c>
     </row>
     <row r="607" spans="1:3">
@@ -7058,7 +7058,7 @@
         <v>42041</v>
       </c>
       <c r="C607">
-        <v>33.87493884844936</v>
+        <v>24.372563254551</v>
       </c>
     </row>
     <row r="608" spans="1:3">
@@ -7069,7 +7069,7 @@
         <v>42048</v>
       </c>
       <c r="C608">
-        <v>30.83831373985046</v>
+        <v>20.43454856769288</v>
       </c>
     </row>
     <row r="609" spans="1:3">
@@ -7091,7 +7091,7 @@
         <v>42062</v>
       </c>
       <c r="C610">
-        <v>50.38926993741475</v>
+        <v>41.31841923871414</v>
       </c>
     </row>
     <row r="611" spans="1:3">
@@ -7102,7 +7102,7 @@
         <v>42069</v>
       </c>
       <c r="C611">
-        <v>-10.58616972921116</v>
+        <v>-9.614352430863272</v>
       </c>
     </row>
     <row r="612" spans="1:3">
@@ -7113,7 +7113,7 @@
         <v>42076</v>
       </c>
       <c r="C612">
-        <v>-15.99742799359296</v>
+        <v>-9.674470795149423</v>
       </c>
     </row>
     <row r="613" spans="1:3">
@@ -7124,7 +7124,7 @@
         <v>42083</v>
       </c>
       <c r="C613">
-        <v>50.84638645906121</v>
+        <v>35.67262238661878</v>
       </c>
     </row>
     <row r="614" spans="1:3">
@@ -7135,7 +7135,7 @@
         <v>42090</v>
       </c>
       <c r="C614">
-        <v>-79.0097519435551</v>
+        <v>-51.04446746910967</v>
       </c>
     </row>
     <row r="615" spans="1:3">
@@ -7146,7 +7146,7 @@
         <v>42097</v>
       </c>
       <c r="C615">
-        <v>37.03251356974707</v>
+        <v>24.3837040459376</v>
       </c>
     </row>
     <row r="616" spans="1:3">
@@ -7157,7 +7157,7 @@
         <v>42104</v>
       </c>
       <c r="C616">
-        <v>14.53451882701707</v>
+        <v>14.28960087453102</v>
       </c>
     </row>
     <row r="617" spans="1:3">
@@ -7168,7 +7168,7 @@
         <v>42111</v>
       </c>
       <c r="C617">
-        <v>-14.27668492050258</v>
+        <v>-2.278643784361496</v>
       </c>
     </row>
     <row r="618" spans="1:3">
@@ -7179,7 +7179,7 @@
         <v>42118</v>
       </c>
       <c r="C618">
-        <v>178.6107468486903</v>
+        <v>131.2749352006111</v>
       </c>
     </row>
     <row r="619" spans="1:3">
@@ -7190,7 +7190,7 @@
         <v>42125</v>
       </c>
       <c r="C619">
-        <v>-11.18726113469857</v>
+        <v>3.957083399139586</v>
       </c>
     </row>
     <row r="620" spans="1:3">
@@ -7201,7 +7201,7 @@
         <v>42132</v>
       </c>
       <c r="C620">
-        <v>-54.0435592206689</v>
+        <v>-43.95225696213948</v>
       </c>
     </row>
     <row r="621" spans="1:3">
@@ -7212,7 +7212,7 @@
         <v>42139</v>
       </c>
       <c r="C621">
-        <v>-50.98602960374139</v>
+        <v>-39.33554416684809</v>
       </c>
     </row>
     <row r="622" spans="1:3">
@@ -7223,7 +7223,7 @@
         <v>42146</v>
       </c>
       <c r="C622">
-        <v>16.4447105009062</v>
+        <v>6.621527789707805</v>
       </c>
     </row>
     <row r="623" spans="1:3">
@@ -7234,7 +7234,7 @@
         <v>42153</v>
       </c>
       <c r="C623">
-        <v>42.29955019802025</v>
+        <v>34.29552094072186</v>
       </c>
     </row>
     <row r="624" spans="1:3">
@@ -7245,7 +7245,7 @@
         <v>42160</v>
       </c>
       <c r="C624">
-        <v>-165.1516658976302</v>
+        <v>-96.73244042731926</v>
       </c>
     </row>
     <row r="625" spans="1:3">
@@ -7256,7 +7256,7 @@
         <v>42167</v>
       </c>
       <c r="C625">
-        <v>-1.508769242551734</v>
+        <v>12.76547638128105</v>
       </c>
     </row>
     <row r="626" spans="1:3">
@@ -7267,7 +7267,7 @@
         <v>42174</v>
       </c>
       <c r="C626">
-        <v>5.360205100930987</v>
+        <v>-11.77339284756171</v>
       </c>
     </row>
     <row r="627" spans="1:3">
@@ -7278,7 +7278,7 @@
         <v>42181</v>
       </c>
       <c r="C627">
-        <v>36.98808296481187</v>
+        <v>51.83829677907236</v>
       </c>
     </row>
     <row r="628" spans="1:3">
@@ -7289,7 +7289,7 @@
         <v>42188</v>
       </c>
       <c r="C628">
-        <v>-35.52580496197406</v>
+        <v>-15.54942992485742</v>
       </c>
     </row>
     <row r="629" spans="1:3">
@@ -7300,7 +7300,7 @@
         <v>42195</v>
       </c>
       <c r="C629">
-        <v>-96.68712363304873</v>
+        <v>-79.52974346099202</v>
       </c>
     </row>
     <row r="630" spans="1:3">
@@ -7795,7 +7795,7 @@
         <v>42510</v>
       </c>
       <c r="C674">
-        <v>14.43343386471352</v>
+        <v>23.72855392668093</v>
       </c>
     </row>
     <row r="675" spans="1:3">
@@ -7806,7 +7806,7 @@
         <v>42517</v>
       </c>
       <c r="C675">
-        <v>43.32129963898915</v>
+        <v>81.69428505725469</v>
       </c>
     </row>
     <row r="676" spans="1:3">
@@ -7817,7 +7817,7 @@
         <v>42524</v>
       </c>
       <c r="C676">
-        <v>19.94707917769177</v>
+        <v>36.20724177931784</v>
       </c>
     </row>
     <row r="677" spans="1:3">
@@ -7828,7 +7828,7 @@
         <v>42531</v>
       </c>
       <c r="C677">
-        <v>35.28503957959168</v>
+        <v>36.49716079171276</v>
       </c>
     </row>
     <row r="678" spans="1:3">
@@ -7839,7 +7839,7 @@
         <v>42538</v>
       </c>
       <c r="C678">
-        <v>-45.47186377505561</v>
+        <v>-26.24109454428625</v>
       </c>
     </row>
     <row r="679" spans="1:3">
@@ -7850,7 +7850,7 @@
         <v>42545</v>
       </c>
       <c r="C679">
-        <v>-35.97385621073239</v>
+        <v>-23.58995528193989</v>
       </c>
     </row>
     <row r="680" spans="1:3">
@@ -7861,7 +7861,7 @@
         <v>42552</v>
       </c>
       <c r="C680">
-        <v>104.8146938454624</v>
+        <v>87.05084849541012</v>
       </c>
     </row>
     <row r="681" spans="1:3">
@@ -7872,7 +7872,7 @@
         <v>42559</v>
       </c>
       <c r="C681">
-        <v>-18.4829277878277</v>
+        <v>-6.162599245733142</v>
       </c>
     </row>
     <row r="682" spans="1:3">
@@ -7883,7 +7883,7 @@
         <v>42566</v>
       </c>
       <c r="C682">
-        <v>140.2506198519938</v>
+        <v>90.35456995594386</v>
       </c>
     </row>
     <row r="683" spans="1:3">
@@ -7894,7 +7894,7 @@
         <v>42573</v>
       </c>
       <c r="C683">
-        <v>53.83537000736801</v>
+        <v>23.76694277108437</v>
       </c>
     </row>
     <row r="684" spans="1:3">
@@ -7905,7 +7905,7 @@
         <v>42580</v>
       </c>
       <c r="C684">
-        <v>-0.7813144484987049</v>
+        <v>0.9756401635070091</v>
       </c>
     </row>
     <row r="685" spans="1:3">
@@ -7916,7 +7916,7 @@
         <v>42587</v>
       </c>
       <c r="C685">
-        <v>40.66432123074463</v>
+        <v>31.57074540205601</v>
       </c>
     </row>
     <row r="686" spans="1:3">
@@ -7927,7 +7927,7 @@
         <v>42594</v>
       </c>
       <c r="C686">
-        <v>44.64931543327781</v>
+        <v>33.36290172458735</v>
       </c>
     </row>
     <row r="687" spans="1:3">
@@ -7938,7 +7938,7 @@
         <v>42601</v>
       </c>
       <c r="C687">
-        <v>-29.48120857177439</v>
+        <v>-15.88660303055745</v>
       </c>
     </row>
     <row r="688" spans="1:3">
@@ -7949,7 +7949,7 @@
         <v>42608</v>
       </c>
       <c r="C688">
-        <v>44.92724159841201</v>
+        <v>17.86190543363858</v>
       </c>
     </row>
     <row r="689" spans="1:3">
@@ -7960,7 +7960,7 @@
         <v>42615</v>
       </c>
       <c r="C689">
-        <v>-45.12232629847961</v>
+        <v>-23.13087414942098</v>
       </c>
     </row>
     <row r="690" spans="1:3">
@@ -7971,7 +7971,7 @@
         <v>42622</v>
       </c>
       <c r="C690">
-        <v>95.70141740789434</v>
+        <v>57.98712457470199</v>
       </c>
     </row>
     <row r="691" spans="1:3">
@@ -7982,7 +7982,7 @@
         <v>42629</v>
       </c>
       <c r="C691">
-        <v>-130.737701847702</v>
+        <v>-79.85029789738567</v>
       </c>
     </row>
     <row r="692" spans="1:3">
@@ -7993,7 +7993,7 @@
         <v>42636</v>
       </c>
       <c r="C692">
-        <v>179.9066580510839</v>
+        <v>103.7863497879183</v>
       </c>
     </row>
     <row r="693" spans="1:3">
@@ -8004,7 +8004,7 @@
         <v>42643</v>
       </c>
       <c r="C693">
-        <v>-31.35577232038836</v>
+        <v>-17.5088780908262</v>
       </c>
     </row>
     <row r="694" spans="1:3">
@@ -8015,7 +8015,7 @@
         <v>42650</v>
       </c>
       <c r="C694">
-        <v>22.99645977377163</v>
+        <v>8.600734355044677</v>
       </c>
     </row>
     <row r="695" spans="1:3">
@@ -8026,7 +8026,7 @@
         <v>42657</v>
       </c>
       <c r="C695">
-        <v>-45.75761517796106</v>
+        <v>-28.17590528617207</v>
       </c>
     </row>
     <row r="696" spans="1:3">
@@ -8037,7 +8037,7 @@
         <v>42664</v>
       </c>
       <c r="C696">
-        <v>72.85033972493423</v>
+        <v>40.25229552103234</v>
       </c>
     </row>
     <row r="697" spans="1:3">
@@ -8048,7 +8048,7 @@
         <v>42671</v>
       </c>
       <c r="C697">
-        <v>-2.334311329515031</v>
+        <v>-1.519069166128123</v>
       </c>
     </row>
     <row r="698" spans="1:3">
@@ -8059,7 +8059,7 @@
         <v>42678</v>
       </c>
       <c r="C698">
-        <v>-108.2428433266146</v>
+        <v>-61.2218665312508</v>
       </c>
     </row>
     <row r="699" spans="1:3">
@@ -8070,7 +8070,7 @@
         <v>42685</v>
       </c>
       <c r="C699">
-        <v>-48.54883177399307</v>
+        <v>-10.17991203249602</v>
       </c>
     </row>
     <row r="700" spans="1:3">
@@ -8081,7 +8081,7 @@
         <v>42692</v>
       </c>
       <c r="C700">
-        <v>16.32873741456534</v>
+        <v>22.75086160743761</v>
       </c>
     </row>
     <row r="701" spans="1:3">
@@ -8092,7 +8092,7 @@
         <v>42699</v>
       </c>
       <c r="C701">
-        <v>84.9004397571625</v>
+        <v>71.53037455000367</v>
       </c>
     </row>
     <row r="702" spans="1:3">
@@ -8103,7 +8103,7 @@
         <v>42706</v>
       </c>
       <c r="C702">
-        <v>8.897953897953919</v>
+        <v>-1.433003684312397</v>
       </c>
     </row>
     <row r="703" spans="1:3">
@@ -8114,7 +8114,7 @@
         <v>42713</v>
       </c>
       <c r="C703">
-        <v>69.34563758932208</v>
+        <v>55.4416248349748</v>
       </c>
     </row>
     <row r="704" spans="1:3">
@@ -8125,7 +8125,7 @@
         <v>42720</v>
       </c>
       <c r="C704">
-        <v>-1.415221527847217</v>
+        <v>-10.81174517781935</v>
       </c>
     </row>
     <row r="705" spans="1:3">
@@ -8136,7 +8136,7 @@
         <v>42727</v>
       </c>
       <c r="C705">
-        <v>-101.1598111747407</v>
+        <v>-74.64253050380009</v>
       </c>
     </row>
     <row r="706" spans="1:3">
@@ -8147,7 +8147,7 @@
         <v>42734</v>
       </c>
       <c r="C706">
-        <v>51.23771236169023</v>
+        <v>42.08474095554587</v>
       </c>
     </row>
     <row r="707" spans="1:3">
@@ -8158,7 +8158,7 @@
         <v>42741</v>
       </c>
       <c r="C707">
-        <v>47.38781811719186</v>
+        <v>29.86903455920659</v>
       </c>
     </row>
     <row r="708" spans="1:3">
@@ -8169,7 +8169,7 @@
         <v>42748</v>
       </c>
       <c r="C708">
-        <v>10.31631748078882</v>
+        <v>9.938534283517638</v>
       </c>
     </row>
     <row r="709" spans="1:3">
@@ -8180,7 +8180,7 @@
         <v>42755</v>
       </c>
       <c r="C709">
-        <v>-40.29806491791777</v>
+        <v>-29.22710740073584</v>
       </c>
     </row>
     <row r="710" spans="1:3">
@@ -8191,7 +8191,7 @@
         <v>42762</v>
       </c>
       <c r="C710">
-        <v>62.54182448467774</v>
+        <v>30.04111167368331</v>
       </c>
     </row>
     <row r="711" spans="1:3">
@@ -8202,7 +8202,7 @@
         <v>42769</v>
       </c>
       <c r="C711">
-        <v>-16.33794666265479</v>
+        <v>-6.106270274307859</v>
       </c>
     </row>
     <row r="712" spans="1:3">
@@ -8213,7 +8213,7 @@
         <v>42776</v>
       </c>
       <c r="C712">
-        <v>130.2309801955843</v>
+        <v>80.12275947943382</v>
       </c>
     </row>
     <row r="713" spans="1:3">
@@ -8224,7 +8224,7 @@
         <v>42783</v>
       </c>
       <c r="C713">
-        <v>37.56571884042449</v>
+        <v>25.33221791984093</v>
       </c>
     </row>
     <row r="714" spans="1:3">
@@ -8235,7 +8235,7 @@
         <v>42790</v>
       </c>
       <c r="C714">
-        <v>-7.59774191867657</v>
+        <v>-13.27568908603063</v>
       </c>
     </row>
     <row r="715" spans="1:3">
@@ -8246,7 +8246,7 @@
         <v>42797</v>
       </c>
       <c r="C715">
-        <v>-35.55805523604233</v>
+        <v>-14.06088232764222</v>
       </c>
     </row>
     <row r="716" spans="1:3">
@@ -8257,7 +8257,7 @@
         <v>42804</v>
       </c>
       <c r="C716">
-        <v>1.936826524080226</v>
+        <v>4.658155989749154</v>
       </c>
     </row>
     <row r="717" spans="1:3">
@@ -8268,7 +8268,7 @@
         <v>42811</v>
       </c>
       <c r="C717">
-        <v>121.843749456075</v>
+        <v>59.91797468465279</v>
       </c>
     </row>
     <row r="718" spans="1:3">
@@ -8279,7 +8279,7 @@
         <v>42818</v>
       </c>
       <c r="C718">
-        <v>11.89278155895786</v>
+        <v>6.73009579188475</v>
       </c>
     </row>
     <row r="719" spans="1:3">
@@ -8290,7 +8290,7 @@
         <v>42825</v>
       </c>
       <c r="C719">
-        <v>-41.76494563715207</v>
+        <v>-27.07930932865117</v>
       </c>
     </row>
     <row r="720" spans="1:3">
@@ -8301,7 +8301,7 @@
         <v>42832</v>
       </c>
       <c r="C720">
-        <v>2.965387691785399</v>
+        <v>-0.3982957292868265</v>
       </c>
     </row>
     <row r="721" spans="1:3">
@@ -8312,7 +8312,7 @@
         <v>42839</v>
       </c>
       <c r="C721">
-        <v>-55.49941098334661</v>
+        <v>-41.17194198550469</v>
       </c>
     </row>
     <row r="722" spans="1:3">
@@ -8323,7 +8323,7 @@
         <v>42846</v>
       </c>
       <c r="C722">
-        <v>-14.28101841743215</v>
+        <v>-13.36368914009649</v>
       </c>
     </row>
     <row r="723" spans="1:3">
@@ -8334,7 +8334,7 @@
         <v>42853</v>
       </c>
       <c r="C723">
-        <v>76.64244883137891</v>
+        <v>43.39890986800379</v>
       </c>
     </row>
     <row r="724" spans="1:3">
@@ -8345,7 +8345,7 @@
         <v>42860</v>
       </c>
       <c r="C724">
-        <v>35.79786288954419</v>
+        <v>19.04062743158126</v>
       </c>
     </row>
     <row r="725" spans="1:3">
@@ -8356,7 +8356,7 @@
         <v>42867</v>
       </c>
       <c r="C725">
-        <v>48.79040062942119</v>
+        <v>21.33157582618377</v>
       </c>
     </row>
     <row r="726" spans="1:3">
@@ -8367,7 +8367,7 @@
         <v>42874</v>
       </c>
       <c r="C726">
-        <v>-11.16621876205109</v>
+        <v>1.386339125650391</v>
       </c>
     </row>
     <row r="727" spans="1:3">
@@ -8378,7 +8378,7 @@
         <v>42881</v>
       </c>
       <c r="C727">
-        <v>53.62385514865307</v>
+        <v>21.60360847962</v>
       </c>
     </row>
     <row r="728" spans="1:3">
@@ -8389,7 +8389,7 @@
         <v>42888</v>
       </c>
       <c r="C728">
-        <v>16.48496400194106</v>
+        <v>1.332751831471764</v>
       </c>
     </row>
     <row r="729" spans="1:3">
@@ -8400,7 +8400,7 @@
         <v>42895</v>
       </c>
       <c r="C729">
-        <v>53.29723595978857</v>
+        <v>11.60632381768313</v>
       </c>
     </row>
     <row r="730" spans="1:3">
@@ -8411,7 +8411,7 @@
         <v>42902</v>
       </c>
       <c r="C730">
-        <v>-35.22994319429873</v>
+        <v>1.143726643953161</v>
       </c>
     </row>
     <row r="731" spans="1:3">
@@ -8422,7 +8422,7 @@
         <v>42909</v>
       </c>
       <c r="C731">
-        <v>132.3935340039326</v>
+        <v>51.06494135672841</v>
       </c>
     </row>
     <row r="732" spans="1:3">
@@ -8433,7 +8433,7 @@
         <v>42916</v>
       </c>
       <c r="C732">
-        <v>49.43416832517413</v>
+        <v>40.1202203734121</v>
       </c>
     </row>
     <row r="733" spans="1:3">
@@ -8444,7 +8444,7 @@
         <v>42923</v>
       </c>
       <c r="C733">
-        <v>-8.697592495636933</v>
+        <v>-5.352289813982757</v>
       </c>
     </row>
     <row r="734" spans="1:3">
@@ -8455,7 +8455,7 @@
         <v>42930</v>
       </c>
       <c r="C734">
-        <v>127.2707525488216</v>
+        <v>63.1035276316284</v>
       </c>
     </row>
     <row r="735" spans="1:3">
@@ -8466,7 +8466,7 @@
         <v>42937</v>
       </c>
       <c r="C735">
-        <v>22.30900736567537</v>
+        <v>4.541880763323305</v>
       </c>
     </row>
     <row r="736" spans="1:3">
@@ -8477,7 +8477,7 @@
         <v>42944</v>
       </c>
       <c r="C736">
-        <v>18.13883220627496</v>
+        <v>1.89702300431129</v>
       </c>
     </row>
     <row r="737" spans="1:3">
@@ -8488,7 +8488,7 @@
         <v>42951</v>
       </c>
       <c r="C737">
-        <v>47.8340538245657</v>
+        <v>21.55603997850233</v>
       </c>
     </row>
     <row r="738" spans="1:3">
@@ -8499,7 +8499,7 @@
         <v>42958</v>
       </c>
       <c r="C738">
-        <v>-81.68601995252837</v>
+        <v>-39.07061223616668</v>
       </c>
     </row>
     <row r="739" spans="1:3">
@@ -8510,7 +8510,7 @@
         <v>42965</v>
       </c>
       <c r="C739">
-        <v>7.506187836674123</v>
+        <v>2.266031533820886</v>
       </c>
     </row>
     <row r="740" spans="1:3">
@@ -8521,7 +8521,7 @@
         <v>42972</v>
       </c>
       <c r="C740">
-        <v>94.96698188490885</v>
+        <v>30.63894751778447</v>
       </c>
     </row>
     <row r="741" spans="1:3">
@@ -8532,7 +8532,7 @@
         <v>42979</v>
       </c>
       <c r="C741">
-        <v>68.83191846620559</v>
+        <v>28.78571401325347</v>
       </c>
     </row>
     <row r="742" spans="1:3">
@@ -8543,7 +8543,7 @@
         <v>42986</v>
       </c>
       <c r="C742">
-        <v>-6.107579403574837</v>
+        <v>-14.31976089124273</v>
       </c>
     </row>
     <row r="743" spans="1:3">
@@ -8554,7 +8554,7 @@
         <v>42993</v>
       </c>
       <c r="C743">
-        <v>1.366109987414287</v>
+        <v>7.056332662187039</v>
       </c>
     </row>
     <row r="744" spans="1:3">
@@ -8565,7 +8565,7 @@
         <v>43000</v>
       </c>
       <c r="C744">
-        <v>-39.77324525136487</v>
+        <v>-26.26997873378338</v>
       </c>
     </row>
     <row r="745" spans="1:3">
@@ -8576,7 +8576,7 @@
         <v>43007</v>
       </c>
       <c r="C745">
-        <v>-98.59224443162839</v>
+        <v>-30.70685829381951</v>
       </c>
     </row>
     <row r="746" spans="1:3">
@@ -8587,7 +8587,7 @@
         <v>43014</v>
       </c>
       <c r="C746">
-        <v>148.0112159478755</v>
+        <v>48.00721119717188</v>
       </c>
     </row>
     <row r="747" spans="1:3">
@@ -8598,7 +8598,7 @@
         <v>43021</v>
       </c>
       <c r="C747">
-        <v>118.1181288130759</v>
+        <v>24.11408884217837</v>
       </c>
     </row>
     <row r="748" spans="1:3">
@@ -8609,7 +8609,7 @@
         <v>43028</v>
       </c>
       <c r="C748">
-        <v>42.84363013585112</v>
+        <v>6.758444742252159</v>
       </c>
     </row>
     <row r="749" spans="1:3">
@@ -8620,7 +8620,7 @@
         <v>43035</v>
       </c>
       <c r="C749">
-        <v>12.15938898833321</v>
+        <v>1.612468171130125</v>
       </c>
     </row>
     <row r="750" spans="1:3">
@@ -8631,7 +8631,7 @@
         <v>43042</v>
       </c>
       <c r="C750">
-        <v>71.48191822842782</v>
+        <v>16.98574932691635</v>
       </c>
     </row>
     <row r="751" spans="1:3">
@@ -8642,7 +8642,7 @@
         <v>43049</v>
       </c>
       <c r="C751">
-        <v>-48.32004203381392</v>
+        <v>-17.720870116763</v>
       </c>
     </row>
     <row r="752" spans="1:3">
@@ -8653,7 +8653,7 @@
         <v>43056</v>
       </c>
       <c r="C752">
-        <v>0.869639904303753</v>
+        <v>-8.27812888652007</v>
       </c>
     </row>
     <row r="753" spans="1:3">
@@ -8664,7 +8664,7 @@
         <v>43063</v>
       </c>
       <c r="C753">
-        <v>121.7030379314403</v>
+        <v>51.88080448519804</v>
       </c>
     </row>
     <row r="754" spans="1:3">
@@ -8675,7 +8675,7 @@
         <v>43070</v>
       </c>
       <c r="C754">
-        <v>-157.2732017846084</v>
+        <v>-40.30196741443557</v>
       </c>
     </row>
     <row r="755" spans="1:3">
@@ -8686,7 +8686,7 @@
         <v>43077</v>
       </c>
       <c r="C755">
-        <v>-144.4665622925234</v>
+        <v>-43.28469763300281</v>
       </c>
     </row>
     <row r="756" spans="1:3">
@@ -8697,7 +8697,7 @@
         <v>43084</v>
       </c>
       <c r="C756">
-        <v>18.07663647098216</v>
+        <v>11.63591480647706</v>
       </c>
     </row>
     <row r="757" spans="1:3">
@@ -8708,7 +8708,7 @@
         <v>43091</v>
       </c>
       <c r="C757">
-        <v>-32.24351232039409</v>
+        <v>13.06479110429603</v>
       </c>
     </row>
     <row r="758" spans="1:3">
@@ -8719,7 +8719,7 @@
         <v>43098</v>
       </c>
       <c r="C758">
-        <v>64.16366813663672</v>
+        <v>6.717014337932825</v>
       </c>
     </row>
     <row r="759" spans="1:3">
@@ -8730,7 +8730,7 @@
         <v>43105</v>
       </c>
       <c r="C759">
-        <v>164.2038863762596</v>
+        <v>44.41519388633899</v>
       </c>
     </row>
     <row r="760" spans="1:3">
@@ -8741,7 +8741,7 @@
         <v>43112</v>
       </c>
       <c r="C760">
-        <v>31.2689871055203</v>
+        <v>22.52141343235831</v>
       </c>
     </row>
     <row r="761" spans="1:3">
@@ -8752,7 +8752,7 @@
         <v>43119</v>
       </c>
       <c r="C761">
-        <v>235.2996182063261</v>
+        <v>43.46901386350235</v>
       </c>
     </row>
     <row r="762" spans="1:3">
@@ -8763,7 +8763,7 @@
         <v>43126</v>
       </c>
       <c r="C762">
-        <v>44.64435044000908</v>
+        <v>1.237044955786105</v>
       </c>
     </row>
     <row r="763" spans="1:3">
@@ -8774,7 +8774,7 @@
         <v>43133</v>
       </c>
       <c r="C763">
-        <v>-39.98169123386451</v>
+        <v>-8.39193262510295</v>
       </c>
     </row>
     <row r="764" spans="1:3">
@@ -8785,7 +8785,7 @@
         <v>43140</v>
       </c>
       <c r="C764">
-        <v>-522.0079841275947</v>
+        <v>-116.5212204488566</v>
       </c>
     </row>
     <row r="765" spans="1:3">
@@ -8796,7 +8796,7 @@
         <v>43147</v>
       </c>
       <c r="C765">
-        <v>43.47602720995545</v>
+        <v>20.34832907568578</v>
       </c>
     </row>
     <row r="766" spans="1:3">
@@ -8807,7 +8807,7 @@
         <v>43154</v>
       </c>
       <c r="C766">
-        <v>202.0233378194856</v>
+        <v>53.54928980284075</v>
       </c>
     </row>
     <row r="767" spans="1:3">
@@ -8818,7 +8818,7 @@
         <v>43161</v>
       </c>
       <c r="C767">
-        <v>-97.23709589889283</v>
+        <v>-17.57989457211104</v>
       </c>
     </row>
     <row r="768" spans="1:3">
@@ -8829,7 +8829,7 @@
         <v>43168</v>
       </c>
       <c r="C768">
-        <v>95.68957045531934</v>
+        <v>23.11040590463918</v>
       </c>
     </row>
     <row r="769" spans="1:3">
@@ -8840,7 +8840,7 @@
         <v>43175</v>
       </c>
       <c r="C769">
-        <v>97.17780016805503</v>
+        <v>25.12331158375128</v>
       </c>
     </row>
     <row r="770" spans="1:3">
@@ -8851,7 +8851,7 @@
         <v>43182</v>
       </c>
       <c r="C770">
-        <v>-133.8992740069637</v>
+        <v>-88.40941643251394</v>
       </c>
     </row>
     <row r="771" spans="1:3">
@@ -8862,7 +8862,7 @@
         <v>43189</v>
       </c>
       <c r="C771">
-        <v>60.03370242743665</v>
+        <v>40.59299501517332</v>
       </c>
     </row>
     <row r="772" spans="1:3">
@@ -8873,7 +8873,7 @@
         <v>43196</v>
       </c>
       <c r="C772">
-        <v>-59.12062766897</v>
+        <v>-45.07305461515103</v>
       </c>
     </row>
     <row r="773" spans="1:3">
@@ -8884,7 +8884,7 @@
         <v>43203</v>
       </c>
       <c r="C773">
-        <v>106.6395454169008</v>
+        <v>76.76584605167614</v>
       </c>
     </row>
     <row r="774" spans="1:3">
@@ -8895,7 +8895,7 @@
         <v>43210</v>
       </c>
       <c r="C774">
-        <v>-109.3741129499726</v>
+        <v>-56.71447215406898</v>
       </c>
     </row>
     <row r="775" spans="1:3">
@@ -8906,7 +8906,7 @@
         <v>43217</v>
       </c>
       <c r="C775">
-        <v>-143.0146966299181</v>
+        <v>-107.0657876794018</v>
       </c>
     </row>
     <row r="776" spans="1:3">
@@ -8917,7 +8917,7 @@
         <v>43224</v>
       </c>
       <c r="C776">
-        <v>-6.792066138246698</v>
+        <v>-1.253604599785169</v>
       </c>
     </row>
     <row r="777" spans="1:3">
@@ -8928,7 +8928,7 @@
         <v>43231</v>
       </c>
       <c r="C777">
-        <v>144.5183355439651</v>
+        <v>127.1916028706977</v>
       </c>
     </row>
     <row r="778" spans="1:3">
@@ -8939,7 +8939,7 @@
         <v>43238</v>
       </c>
       <c r="C778">
-        <v>26.28446272239684</v>
+        <v>23.85137269806599</v>
       </c>
     </row>
     <row r="779" spans="1:3">
@@ -8950,7 +8950,7 @@
         <v>43245</v>
       </c>
       <c r="C779">
-        <v>34.34671434013997</v>
+        <v>31.9195298741206</v>
       </c>
     </row>
     <row r="780" spans="1:3">
@@ -8961,7 +8961,7 @@
         <v>43252</v>
       </c>
       <c r="C780">
-        <v>-30.15937938524505</v>
+        <v>-21.68480311405857</v>
       </c>
     </row>
     <row r="781" spans="1:3">
@@ -8972,7 +8972,7 @@
         <v>43259</v>
       </c>
       <c r="C781">
-        <v>102.3110936818563</v>
+        <v>87.65907902984151</v>
       </c>
     </row>
     <row r="782" spans="1:3">
@@ -8983,7 +8983,7 @@
         <v>43266</v>
       </c>
       <c r="C782">
-        <v>-70.40347700626339</v>
+        <v>-66.19168398580608</v>
       </c>
     </row>
     <row r="783" spans="1:3">
@@ -8994,7 +8994,7 @@
         <v>43273</v>
       </c>
       <c r="C783">
-        <v>-48.84139034823782</v>
+        <v>-43.40332388298103</v>
       </c>
     </row>
     <row r="784" spans="1:3">
@@ -9005,7 +9005,7 @@
         <v>43280</v>
       </c>
       <c r="C784">
-        <v>-8.36839249291782</v>
+        <v>-10.79852615026892</v>
       </c>
     </row>
     <row r="785" spans="1:3">
@@ -9016,7 +9016,7 @@
         <v>43287</v>
       </c>
       <c r="C785">
-        <v>-82.51419589194012</v>
+        <v>-69.18086255860685</v>
       </c>
     </row>
     <row r="786" spans="1:3">
@@ -9027,7 +9027,7 @@
         <v>43294</v>
       </c>
       <c r="C786">
-        <v>169.1314963714789</v>
+        <v>145.1757224157049</v>
       </c>
     </row>
     <row r="787" spans="1:3">
@@ -9038,7 +9038,7 @@
         <v>43301</v>
       </c>
       <c r="C787">
-        <v>61.91746565941905</v>
+        <v>52.31938527549605</v>
       </c>
     </row>
     <row r="788" spans="1:3">
@@ -9049,7 +9049,7 @@
         <v>43308</v>
       </c>
       <c r="C788">
-        <v>123.1580731939989</v>
+        <v>110.0861777691622</v>
       </c>
     </row>
     <row r="789" spans="1:3">
@@ -9060,7 +9060,7 @@
         <v>43315</v>
       </c>
       <c r="C789">
-        <v>38.87718077732135</v>
+        <v>23.68927787448295</v>
       </c>
     </row>
     <row r="790" spans="1:3">
@@ -9071,7 +9071,7 @@
         <v>43322</v>
       </c>
       <c r="C790">
-        <v>37.21916602131388</v>
+        <v>46.39548238574477</v>
       </c>
     </row>
     <row r="791" spans="1:3">
@@ -9082,7 +9082,7 @@
         <v>43329</v>
       </c>
       <c r="C791">
-        <v>-149.0183009737806</v>
+        <v>-119.6908478315536</v>
       </c>
     </row>
     <row r="792" spans="1:3">
@@ -9093,7 +9093,7 @@
         <v>43336</v>
       </c>
       <c r="C792">
-        <v>95.25431213124507</v>
+        <v>76.39924625209926</v>
       </c>
     </row>
     <row r="793" spans="1:3">
@@ -9104,7 +9104,7 @@
         <v>43343</v>
       </c>
       <c r="C793">
-        <v>169.3925484909772</v>
+        <v>138.6233177217465</v>
       </c>
     </row>
     <row r="794" spans="1:3">
@@ -9115,7 +9115,7 @@
         <v>43350</v>
       </c>
       <c r="C794">
-        <v>-72.53781304583009</v>
+        <v>-80.54127400191931</v>
       </c>
     </row>
     <row r="795" spans="1:3">
@@ -9126,7 +9126,7 @@
         <v>43357</v>
       </c>
       <c r="C795">
-        <v>12.47347385850073</v>
+        <v>16.97991162674109</v>
       </c>
     </row>
     <row r="796" spans="1:3">
@@ -9137,7 +9137,7 @@
         <v>43364</v>
       </c>
       <c r="C796">
-        <v>66.73178254818869</v>
+        <v>75.5698942101849</v>
       </c>
     </row>
     <row r="797" spans="1:3">
@@ -9148,7 +9148,7 @@
         <v>43371</v>
       </c>
       <c r="C797">
-        <v>28.09791930833051</v>
+        <v>19.18099890815644</v>
       </c>
     </row>
     <row r="798" spans="1:3">
@@ -9159,7 +9159,7 @@
         <v>43378</v>
       </c>
       <c r="C798">
-        <v>-265.3388671363024</v>
+        <v>-218.7771081365179</v>
       </c>
     </row>
     <row r="799" spans="1:3">
@@ -9170,7 +9170,7 @@
         <v>43385</v>
       </c>
       <c r="C799">
-        <v>-334.5835585397911</v>
+        <v>-277.1564728513443</v>
       </c>
     </row>
     <row r="800" spans="1:3">
@@ -9181,7 +9181,7 @@
         <v>43392</v>
       </c>
       <c r="C800">
-        <v>-38.29294626700364</v>
+        <v>-40.4517373440006</v>
       </c>
     </row>
     <row r="801" spans="1:3">
@@ -9192,7 +9192,7 @@
         <v>43399</v>
       </c>
       <c r="C801">
-        <v>-162.4166366717404</v>
+        <v>-104.9728836798783</v>
       </c>
     </row>
     <row r="802" spans="1:3">
@@ -9379,7 +9379,7 @@
         <v>43518</v>
       </c>
       <c r="C818">
-        <v>88.22126916668211</v>
+        <v>56.62912588708706</v>
       </c>
     </row>
     <row r="819" spans="1:3">
@@ -9390,7 +9390,7 @@
         <v>43525</v>
       </c>
       <c r="C819">
-        <v>60.60054381040897</v>
+        <v>24.78471605184361</v>
       </c>
     </row>
     <row r="820" spans="1:3">
@@ -9401,7 +9401,7 @@
         <v>43532</v>
       </c>
       <c r="C820">
-        <v>-101.6655898860774</v>
+        <v>-40.18684674120426</v>
       </c>
     </row>
     <row r="821" spans="1:3">
@@ -9412,7 +9412,7 @@
         <v>43539</v>
       </c>
       <c r="C821">
-        <v>126.9253957723569</v>
+        <v>46.0237113783344</v>
       </c>
     </row>
     <row r="822" spans="1:3">
@@ -9423,7 +9423,7 @@
         <v>43546</v>
       </c>
       <c r="C822">
-        <v>203.9461408444618</v>
+        <v>88.53227026233547</v>
       </c>
     </row>
     <row r="823" spans="1:3">
@@ -9434,7 +9434,7 @@
         <v>43553</v>
       </c>
       <c r="C823">
-        <v>0.804167619829494</v>
+        <v>0.6856129363460521</v>
       </c>
     </row>
     <row r="824" spans="1:3">
@@ -9445,7 +9445,7 @@
         <v>43560</v>
       </c>
       <c r="C824">
-        <v>127.8398102783286</v>
+        <v>39.3527940359953</v>
       </c>
     </row>
     <row r="825" spans="1:3">
@@ -9456,7 +9456,7 @@
         <v>43567</v>
       </c>
       <c r="C825">
-        <v>53.95374298717064</v>
+        <v>28.77131925235312</v>
       </c>
     </row>
     <row r="826" spans="1:3">
@@ -9467,7 +9467,7 @@
         <v>43574</v>
       </c>
       <c r="C826">
-        <v>189.0816077847038</v>
+        <v>77.6078684232335</v>
       </c>
     </row>
     <row r="827" spans="1:3">
@@ -9478,7 +9478,7 @@
         <v>43581</v>
       </c>
       <c r="C827">
-        <v>-14.13439215429007</v>
+        <v>14.06444204682974</v>
       </c>
     </row>
     <row r="828" spans="1:3">
@@ -9489,7 +9489,7 @@
         <v>43588</v>
       </c>
       <c r="C828">
-        <v>122.8872523986287</v>
+        <v>65.60931797406909</v>
       </c>
     </row>
     <row r="829" spans="1:3">
@@ -9500,7 +9500,7 @@
         <v>43595</v>
       </c>
       <c r="C829">
-        <v>-377.4247264541788</v>
+        <v>-164.179153695058</v>
       </c>
     </row>
     <row r="830" spans="1:3">
@@ -9511,7 +9511,7 @@
         <v>43602</v>
       </c>
       <c r="C830">
-        <v>-394.1348232612843</v>
+        <v>-170.8732950015604</v>
       </c>
     </row>
     <row r="831" spans="1:3">
@@ -9522,7 +9522,7 @@
         <v>43609</v>
       </c>
       <c r="C831">
-        <v>-128.6231553297505</v>
+        <v>-11.17404452096709</v>
       </c>
     </row>
     <row r="832" spans="1:3">
@@ -9533,7 +9533,7 @@
         <v>43616</v>
       </c>
       <c r="C832">
-        <v>181.5505540594887</v>
+        <v>81.60583408407447</v>
       </c>
     </row>
     <row r="833" spans="1:3">
@@ -9544,7 +9544,7 @@
         <v>43623</v>
       </c>
       <c r="C833">
-        <v>-92.63805613189611</v>
+        <v>-21.30229552393215</v>
       </c>
     </row>
     <row r="834" spans="1:3">
@@ -9555,7 +9555,7 @@
         <v>43630</v>
       </c>
       <c r="C834">
-        <v>158.9945999766605</v>
+        <v>41.13531203792991</v>
       </c>
     </row>
     <row r="835" spans="1:3">
@@ -9566,7 +9566,7 @@
         <v>43637</v>
       </c>
       <c r="C835">
-        <v>271.1583923794715</v>
+        <v>119.5463389590603</v>
       </c>
     </row>
     <row r="836" spans="1:3">
@@ -9577,7 +9577,7 @@
         <v>43644</v>
       </c>
       <c r="C836">
-        <v>50.59093319124772</v>
+        <v>19.65278542288745</v>
       </c>
     </row>
     <row r="837" spans="1:3">
@@ -9588,7 +9588,7 @@
         <v>43651</v>
       </c>
       <c r="C837">
-        <v>134.0459002328792</v>
+        <v>62.37325053577503</v>
       </c>
     </row>
     <row r="838" spans="1:3">
@@ -9599,7 +9599,7 @@
         <v>43658</v>
       </c>
       <c r="C838">
-        <v>135.6079096747011</v>
+        <v>71.12631602584212</v>
       </c>
     </row>
     <row r="839" spans="1:3">
@@ -9610,7 +9610,7 @@
         <v>43665</v>
       </c>
       <c r="C839">
-        <v>47.12486372676868</v>
+        <v>34.87437935414745</v>
       </c>
     </row>
     <row r="840" spans="1:3">
@@ -9621,7 +9621,7 @@
         <v>43672</v>
       </c>
       <c r="C840">
-        <v>89.78806562410125</v>
+        <v>61.15146438568303</v>
       </c>
     </row>
     <row r="841" spans="1:3">
@@ -9632,7 +9632,7 @@
         <v>43679</v>
       </c>
       <c r="C841">
-        <v>-344.5155074993961</v>
+        <v>-199.0635711224652</v>
       </c>
     </row>
     <row r="842" spans="1:3">
@@ -9643,7 +9643,7 @@
         <v>43686</v>
       </c>
       <c r="C842">
-        <v>-58.27728469418884</v>
+        <v>-42.71664831643158</v>
       </c>
     </row>
     <row r="843" spans="1:3">
@@ -9654,7 +9654,7 @@
         <v>43693</v>
       </c>
       <c r="C843">
-        <v>-11.35939619879445</v>
+        <v>-8.407536815643995</v>
       </c>
     </row>
     <row r="844" spans="1:3">
@@ -9665,7 +9665,7 @@
         <v>43700</v>
       </c>
       <c r="C844">
-        <v>108.8452894595188</v>
+        <v>64.19348403092627</v>
       </c>
     </row>
     <row r="845" spans="1:3">
@@ -9676,7 +9676,7 @@
         <v>43707</v>
       </c>
       <c r="C845">
-        <v>85.59477415036605</v>
+        <v>39.60902917135254</v>
       </c>
     </row>
     <row r="846" spans="1:3">
@@ -9687,7 +9687,7 @@
         <v>43714</v>
       </c>
       <c r="C846">
-        <v>215.3312123415881</v>
+        <v>130.8084531722092</v>
       </c>
     </row>
     <row r="847" spans="1:3">
@@ -9698,7 +9698,7 @@
         <v>43721</v>
       </c>
       <c r="C847">
-        <v>66.4602447761354</v>
+        <v>54.16129849979772</v>
       </c>
     </row>
     <row r="848" spans="1:3">
@@ -9709,7 +9709,7 @@
         <v>43728</v>
       </c>
       <c r="C848">
-        <v>112.8801109134835</v>
+        <v>69.82509188519769</v>
       </c>
     </row>
     <row r="849" spans="1:3">
@@ -9720,7 +9720,7 @@
         <v>43735</v>
       </c>
       <c r="C849">
-        <v>-86.23511555155198</v>
+        <v>-44.73477290638122</v>
       </c>
     </row>
     <row r="850" spans="1:3">
@@ -9731,7 +9731,7 @@
         <v>43742</v>
       </c>
       <c r="C850">
-        <v>82.97553582271462</v>
+        <v>37.96892084579532</v>
       </c>
     </row>
     <row r="851" spans="1:3">
@@ -9742,7 +9742,7 @@
         <v>43749</v>
       </c>
       <c r="C851">
-        <v>40.06963601078793</v>
+        <v>20.62344377685651</v>
       </c>
     </row>
     <row r="852" spans="1:3">
@@ -9753,7 +9753,7 @@
         <v>43756</v>
       </c>
       <c r="C852">
-        <v>243.2009423894329</v>
+        <v>156.1975979139665</v>
       </c>
     </row>
     <row r="853" spans="1:3">
@@ -9764,7 +9764,7 @@
         <v>43763</v>
       </c>
       <c r="C853">
-        <v>136.9521637970441</v>
+        <v>90.7769572640597</v>
       </c>
     </row>
     <row r="854" spans="1:3">
@@ -9775,7 +9775,7 @@
         <v>43770</v>
       </c>
       <c r="C854">
-        <v>134.4268878090862</v>
+        <v>107.711326193756</v>
       </c>
     </row>
     <row r="855" spans="1:3">
@@ -9786,7 +9786,7 @@
         <v>43777</v>
       </c>
       <c r="C855">
-        <v>227.1098717223024</v>
+        <v>181.5696395394739</v>
       </c>
     </row>
     <row r="856" spans="1:3">
@@ -9797,7 +9797,7 @@
         <v>43784</v>
       </c>
       <c r="C856">
-        <v>-53.47528003339706</v>
+        <v>-47.33881026318294</v>
       </c>
     </row>
     <row r="857" spans="1:3">
@@ -9808,7 +9808,7 @@
         <v>43791</v>
       </c>
       <c r="C857">
-        <v>29.98533937804359</v>
+        <v>28.22059747957274</v>
       </c>
     </row>
     <row r="858" spans="1:3">
@@ -9819,7 +9819,7 @@
         <v>43798</v>
       </c>
       <c r="C858">
-        <v>-49.21091067890899</v>
+        <v>-46.55117709423543</v>
       </c>
     </row>
     <row r="859" spans="1:3">
@@ -9830,7 +9830,7 @@
         <v>43805</v>
       </c>
       <c r="C859">
-        <v>102.6864715327993</v>
+        <v>57.09972380986993</v>
       </c>
     </row>
     <row r="860" spans="1:3">
@@ -9841,7 +9841,7 @@
         <v>43812</v>
       </c>
       <c r="C860">
-        <v>338.3477329987428</v>
+        <v>203.1153169068218</v>
       </c>
     </row>
     <row r="861" spans="1:3">
@@ -9852,7 +9852,7 @@
         <v>43819</v>
       </c>
       <c r="C861">
-        <v>70.57564573689046</v>
+        <v>61.3594648268778</v>
       </c>
     </row>
     <row r="862" spans="1:3">
@@ -9863,7 +9863,7 @@
         <v>43826</v>
       </c>
       <c r="C862">
-        <v>117.8541692866409</v>
+        <v>72.71627131234374</v>
       </c>
     </row>
     <row r="863" spans="1:3">
@@ -9874,7 +9874,7 @@
         <v>43833</v>
       </c>
       <c r="C863">
-        <v>17.19594068217315</v>
+        <v>3.248842275090269</v>
       </c>
     </row>
     <row r="864" spans="1:3">
@@ -9885,7 +9885,7 @@
         <v>43840</v>
       </c>
       <c r="C864">
-        <v>-92.60683596221475</v>
+        <v>-53.56803704479064</v>
       </c>
     </row>
     <row r="865" spans="1:3">
@@ -9896,7 +9896,7 @@
         <v>43847</v>
       </c>
       <c r="C865">
-        <v>161.6500562917048</v>
+        <v>105.6056144993372</v>
       </c>
     </row>
     <row r="866" spans="1:3">
@@ -9907,7 +9907,7 @@
         <v>43854</v>
       </c>
       <c r="C866">
-        <v>52.46113976296159</v>
+        <v>35.87444768940769</v>
       </c>
     </row>
     <row r="867" spans="1:3">
@@ -9918,7 +9918,7 @@
         <v>43861</v>
       </c>
       <c r="C867">
-        <v>-644.5238209504346</v>
+        <v>-473.2236304133352</v>
       </c>
     </row>
     <row r="868" spans="1:3">
@@ -9929,7 +9929,7 @@
         <v>43868</v>
       </c>
       <c r="C868">
-        <v>117.048447198199</v>
+        <v>82.96634064959417</v>
       </c>
     </row>
     <row r="869" spans="1:3">
@@ -9940,7 +9940,7 @@
         <v>43875</v>
       </c>
       <c r="C869">
-        <v>232.3842841490314</v>
+        <v>167.7049023611148</v>
       </c>
     </row>
     <row r="870" spans="1:3">
@@ -9951,7 +9951,7 @@
         <v>43882</v>
       </c>
       <c r="C870">
-        <v>-83.62149815515085</v>
+        <v>-51.24510024520349</v>
       </c>
     </row>
     <row r="871" spans="1:3">
@@ -9962,7 +9962,7 @@
         <v>43889</v>
       </c>
       <c r="C871">
-        <v>-459.6185891675281</v>
+        <v>-306.6423900656443</v>
       </c>
     </row>
     <row r="872" spans="1:3">
@@ -9973,7 +9973,7 @@
         <v>43896</v>
       </c>
       <c r="C872">
-        <v>18.77086090606899</v>
+        <v>-15.2613231651508</v>
       </c>
     </row>
     <row r="873" spans="1:3">
@@ -9984,7 +9984,7 @@
         <v>43903</v>
       </c>
       <c r="C873">
-        <v>-554.2539674207494</v>
+        <v>-724.8113630131209</v>
       </c>
     </row>
     <row r="874" spans="1:3">
@@ -10094,7 +10094,7 @@
         <v>43973</v>
       </c>
       <c r="C883">
-        <v>10.7405313736573</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884" spans="1:3">
@@ -10105,7 +10105,7 @@
         <v>43980</v>
       </c>
       <c r="C884">
-        <v>29.08277404921698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885" spans="1:3">
@@ -10116,7 +10116,7 @@
         <v>43987</v>
       </c>
       <c r="C885">
-        <v>57.99168708612652</v>
+        <v>33.53516534699592</v>
       </c>
     </row>
     <row r="886" spans="1:3">
@@ -10127,7 +10127,7 @@
         <v>43994</v>
       </c>
       <c r="C886">
-        <v>-20.2642924757664</v>
+        <v>-22.89604843223802</v>
       </c>
     </row>
     <row r="887" spans="1:3">
@@ -10138,7 +10138,7 @@
         <v>44001</v>
       </c>
       <c r="C887">
-        <v>81.37551483432543</v>
+        <v>21.83040981777046</v>
       </c>
     </row>
     <row r="888" spans="1:3">
@@ -10149,7 +10149,7 @@
         <v>44008</v>
       </c>
       <c r="C888">
-        <v>131.8228505373352</v>
+        <v>76.88697615625632</v>
       </c>
     </row>
     <row r="889" spans="1:3">
@@ -10160,7 +10160,7 @@
         <v>44015</v>
       </c>
       <c r="C889">
-        <v>303.6491396449239</v>
+        <v>187.5265252716039</v>
       </c>
     </row>
     <row r="890" spans="1:3">
@@ -10171,7 +10171,7 @@
         <v>44022</v>
       </c>
       <c r="C890">
-        <v>189.8389637886937</v>
+        <v>155.8568080370734</v>
       </c>
     </row>
     <row r="891" spans="1:3">
@@ -10182,7 +10182,7 @@
         <v>44029</v>
       </c>
       <c r="C891">
-        <v>129.7147565104088</v>
+        <v>130.7904018610957</v>
       </c>
     </row>
     <row r="892" spans="1:3">
@@ -10193,7 +10193,7 @@
         <v>44036</v>
       </c>
       <c r="C892">
-        <v>244.4014932310518</v>
+        <v>165.0337890839931</v>
       </c>
     </row>
     <row r="893" spans="1:3">
@@ -10204,7 +10204,7 @@
         <v>44043</v>
       </c>
       <c r="C893">
-        <v>477.5350931556801</v>
+        <v>389.5843021124331</v>
       </c>
     </row>
     <row r="894" spans="1:3">
@@ -10215,7 +10215,7 @@
         <v>44050</v>
       </c>
       <c r="C894">
-        <v>187.6193702665697</v>
+        <v>90.19115418152174</v>
       </c>
     </row>
     <row r="895" spans="1:3">
@@ -10226,7 +10226,7 @@
         <v>44057</v>
       </c>
       <c r="C895">
-        <v>-37.22223359195704</v>
+        <v>-8.594640165881378</v>
       </c>
     </row>
     <row r="896" spans="1:3">
@@ -10237,7 +10237,7 @@
         <v>44064</v>
       </c>
       <c r="C896">
-        <v>-325.3900657247151</v>
+        <v>-157.5041066162962</v>
       </c>
     </row>
     <row r="897" spans="1:3">
@@ -10248,7 +10248,7 @@
         <v>44071</v>
       </c>
       <c r="C897">
-        <v>155.5927034991714</v>
+        <v>65.85195057256384</v>
       </c>
     </row>
     <row r="898" spans="1:3">
@@ -10259,7 +10259,7 @@
         <v>44078</v>
       </c>
       <c r="C898">
-        <v>-160.1164505580001</v>
+        <v>-115.5546899778613</v>
       </c>
     </row>
     <row r="899" spans="1:3">
@@ -10270,7 +10270,7 @@
         <v>44085</v>
       </c>
       <c r="C899">
-        <v>-37.49272835530944</v>
+        <v>26.04065703999129</v>
       </c>
     </row>
     <row r="900" spans="1:3">
@@ -10281,7 +10281,7 @@
         <v>44092</v>
       </c>
       <c r="C900">
-        <v>345.9837873134618</v>
+        <v>180.3798559855642</v>
       </c>
     </row>
     <row r="901" spans="1:3">
@@ -10292,7 +10292,7 @@
         <v>44099</v>
       </c>
       <c r="C901">
-        <v>-856.3052582719082</v>
+        <v>-528.5430642986635</v>
       </c>
     </row>
     <row r="902" spans="1:3">
@@ -10303,7 +10303,7 @@
         <v>44106</v>
       </c>
       <c r="C902">
-        <v>350.048903309431</v>
+        <v>260.3638589539688</v>
       </c>
     </row>
     <row r="903" spans="1:3">
@@ -10314,7 +10314,7 @@
         <v>44113</v>
       </c>
       <c r="C903">
-        <v>413.7579927991321</v>
+        <v>270.958291202944</v>
       </c>
     </row>
     <row r="904" spans="1:3">
@@ -10325,7 +10325,7 @@
         <v>44120</v>
       </c>
       <c r="C904">
-        <v>-86.85319110437177</v>
+        <v>-76.02211198502368</v>
       </c>
     </row>
     <row r="905" spans="1:3">
@@ -10336,7 +10336,7 @@
         <v>44127</v>
       </c>
       <c r="C905">
-        <v>131.7376671681916</v>
+        <v>66.60740443730768</v>
       </c>
     </row>
     <row r="906" spans="1:3">
@@ -10347,7 +10347,7 @@
         <v>44134</v>
       </c>
       <c r="C906">
-        <v>-332.2201079160642</v>
+        <v>-255.7325584042569</v>
       </c>
     </row>
     <row r="907" spans="1:3">
@@ -10358,7 +10358,7 @@
         <v>44141</v>
       </c>
       <c r="C907">
-        <v>470.2954257275466</v>
+        <v>361.1985409253804</v>
       </c>
     </row>
     <row r="908" spans="1:3">
@@ -10369,7 +10369,7 @@
         <v>44148</v>
       </c>
       <c r="C908">
-        <v>283.7431142859431</v>
+        <v>273.8329683493854</v>
       </c>
     </row>
     <row r="909" spans="1:3">
@@ -10380,7 +10380,7 @@
         <v>44155</v>
       </c>
       <c r="C909">
-        <v>609.432787556283</v>
+        <v>417.0157070234017</v>
       </c>
     </row>
     <row r="910" spans="1:3">
@@ -10391,7 +10391,7 @@
         <v>44162</v>
       </c>
       <c r="C910">
-        <v>171.5845316852603</v>
+        <v>92.96270187358317</v>
       </c>
     </row>
     <row r="911" spans="1:3">
@@ -10402,7 +10402,7 @@
         <v>44169</v>
       </c>
       <c r="C911">
-        <v>346.648333283165</v>
+        <v>205.425723437666</v>
       </c>
     </row>
     <row r="912" spans="1:3">
@@ -10413,7 +10413,7 @@
         <v>44176</v>
       </c>
       <c r="C912">
-        <v>143.4061268103051</v>
+        <v>109.2490783408582</v>
       </c>
     </row>
     <row r="913" spans="1:3">
@@ -10424,7 +10424,7 @@
         <v>44183</v>
       </c>
       <c r="C913">
-        <v>-57.91488842137075</v>
+        <v>-48.04188088426208</v>
       </c>
     </row>
     <row r="914" spans="1:3">
@@ -10435,7 +10435,7 @@
         <v>44190</v>
       </c>
       <c r="C914">
-        <v>100.2293113546347</v>
+        <v>72.23042620978181</v>
       </c>
     </row>
     <row r="915" spans="1:3">
@@ -10446,7 +10446,7 @@
         <v>44197</v>
       </c>
       <c r="C915">
-        <v>522.2723693304202</v>
+        <v>359.3895325590941</v>
       </c>
     </row>
     <row r="916" spans="1:3">
@@ -10457,7 +10457,7 @@
         <v>44204</v>
       </c>
       <c r="C916">
-        <v>838.2728724600113</v>
+        <v>618.1026110574471</v>
       </c>
     </row>
     <row r="917" spans="1:3">
@@ -10468,7 +10468,7 @@
         <v>44211</v>
       </c>
       <c r="C917">
-        <v>264.5317411540161</v>
+        <v>176.5015266203739</v>
       </c>
     </row>
     <row r="918" spans="1:3">
@@ -10479,7 +10479,7 @@
         <v>44218</v>
       </c>
       <c r="C918">
-        <v>313.7897135472491</v>
+        <v>274.6668452271184</v>
       </c>
     </row>
     <row r="919" spans="1:3">
@@ -10490,7 +10490,7 @@
         <v>44225</v>
       </c>
       <c r="C919">
-        <v>-893.8689680726853</v>
+        <v>-604.6234113245789</v>
       </c>
     </row>
     <row r="920" spans="1:3">
@@ -10501,7 +10501,7 @@
         <v>44232</v>
       </c>
       <c r="C920">
-        <v>670.6737032826501</v>
+        <v>470.30219035533</v>
       </c>
     </row>
     <row r="921" spans="1:3">
@@ -10523,7 +10523,7 @@
         <v>44246</v>
       </c>
       <c r="C922">
-        <v>681.8927413764575</v>
+        <v>399.2356876568737</v>
       </c>
     </row>
     <row r="923" spans="1:3">
@@ -10534,7 +10534,7 @@
         <v>44253</v>
       </c>
       <c r="C923">
-        <v>-130.7434921676021</v>
+        <v>-141.980539479419</v>
       </c>
     </row>
     <row r="924" spans="1:3">
@@ -10545,7 +10545,7 @@
         <v>44260</v>
       </c>
       <c r="C924">
-        <v>-264.1149842234348</v>
+        <v>-134.5533125195267</v>
       </c>
     </row>
     <row r="925" spans="1:3">
@@ -10556,7 +10556,7 @@
         <v>44267</v>
       </c>
       <c r="C925">
-        <v>545.9166525994574</v>
+        <v>356.7060902892482</v>
       </c>
     </row>
     <row r="926" spans="1:3">
@@ -10567,7 +10567,7 @@
         <v>44274</v>
       </c>
       <c r="C926">
-        <v>-23.44458132947175</v>
+        <v>-45.98767159364726</v>
       </c>
     </row>
     <row r="927" spans="1:3">
@@ -10578,7 +10578,7 @@
         <v>44281</v>
       </c>
       <c r="C927">
-        <v>363.1650006151621</v>
+        <v>226.3407913406704</v>
       </c>
     </row>
     <row r="928" spans="1:3">
@@ -10589,7 +10589,7 @@
         <v>44288</v>
       </c>
       <c r="C928">
-        <v>334.1836539959096</v>
+        <v>212.6134793008763</v>
       </c>
     </row>
     <row r="929" spans="1:3">
@@ -10600,7 +10600,7 @@
         <v>44295</v>
       </c>
       <c r="C929">
-        <v>378.8862600779371</v>
+        <v>215.9140803990563</v>
       </c>
     </row>
     <row r="930" spans="1:3">
@@ -10611,7 +10611,7 @@
         <v>44302</v>
       </c>
       <c r="C930">
-        <v>281.4236985995359</v>
+        <v>169.0731952184936</v>
       </c>
     </row>
     <row r="931" spans="1:3">
@@ -10622,7 +10622,7 @@
         <v>44309</v>
       </c>
       <c r="C931">
-        <v>217.516073745</v>
+        <v>108.6797828511708</v>
       </c>
     </row>
     <row r="932" spans="1:3">
@@ -10633,7 +10633,7 @@
         <v>44316</v>
       </c>
       <c r="C932">
-        <v>398.6477651163053</v>
+        <v>203.9883770055716</v>
       </c>
     </row>
     <row r="933" spans="1:3">
@@ -10644,7 +10644,7 @@
         <v>44323</v>
       </c>
       <c r="C933">
-        <v>-336.4847704438515</v>
+        <v>-125.9616571475507</v>
       </c>
     </row>
     <row r="934" spans="1:3">
@@ -10655,7 +10655,7 @@
         <v>44330</v>
       </c>
       <c r="C934">
-        <v>-1547.561391547767</v>
+        <v>-936.0719430853411</v>
       </c>
     </row>
     <row r="935" spans="1:3">
@@ -10666,7 +10666,7 @@
         <v>44337</v>
       </c>
       <c r="C935">
-        <v>386.5720171475461</v>
+        <v>309.8125824942852</v>
       </c>
     </row>
     <row r="936" spans="1:3">
@@ -10677,7 +10677,7 @@
         <v>44344</v>
       </c>
       <c r="C936">
-        <v>435.47602200525</v>
+        <v>321.7856636894775</v>
       </c>
     </row>
     <row r="937" spans="1:3">
@@ -10688,7 +10688,7 @@
         <v>44351</v>
       </c>
       <c r="C937">
-        <v>190.2528303422755</v>
+        <v>144.417252707843</v>
       </c>
     </row>
     <row r="938" spans="1:3">
@@ -10699,7 +10699,7 @@
         <v>44358</v>
       </c>
       <c r="C938">
-        <v>10.52656699455981</v>
+        <v>34.96590242125222</v>
       </c>
     </row>
     <row r="939" spans="1:3">
@@ -10710,7 +10710,7 @@
         <v>44365</v>
       </c>
       <c r="C939">
-        <v>92.28381238511756</v>
+        <v>34.93304620003899</v>
       </c>
     </row>
     <row r="940" spans="1:3">
@@ -10721,7 +10721,7 @@
         <v>44372</v>
       </c>
       <c r="C940">
-        <v>51.31481319847437</v>
+        <v>-9.718721861085076</v>
       </c>
     </row>
     <row r="941" spans="1:3">
@@ -10732,7 +10732,7 @@
         <v>44379</v>
       </c>
       <c r="C941">
-        <v>116.7252119188505</v>
+        <v>58.72585340515417</v>
       </c>
     </row>
     <row r="942" spans="1:3">
@@ -10743,7 +10743,7 @@
         <v>44386</v>
       </c>
       <c r="C942">
-        <v>61.90488306571724</v>
+        <v>29.01979776190461</v>
       </c>
     </row>
     <row r="943" spans="1:3">
@@ -10754,7 +10754,7 @@
         <v>44393</v>
       </c>
       <c r="C943">
-        <v>293.3882618352304</v>
+        <v>219.2008046118538</v>
       </c>
     </row>
     <row r="944" spans="1:3">
@@ -10765,7 +10765,7 @@
         <v>44400</v>
       </c>
       <c r="C944">
-        <v>-203.7670384418996</v>
+        <v>-134.806189259912</v>
       </c>
     </row>
     <row r="945" spans="1:3">
@@ -10776,7 +10776,7 @@
         <v>44407</v>
       </c>
       <c r="C945">
-        <v>-183.0345503882622</v>
+        <v>-118.1480517946853</v>
       </c>
     </row>
     <row r="946" spans="1:3">
@@ -10787,7 +10787,7 @@
         <v>44414</v>
       </c>
       <c r="C946">
-        <v>272.5416410794094</v>
+        <v>215.4095239356752</v>
       </c>
     </row>
     <row r="947" spans="1:3">
@@ -10798,7 +10798,7 @@
         <v>44421</v>
       </c>
       <c r="C947">
-        <v>-450.9493980110385</v>
+        <v>-326.5056104699198</v>
       </c>
     </row>
     <row r="948" spans="1:3">
@@ -10809,7 +10809,7 @@
         <v>44428</v>
       </c>
       <c r="C948">
-        <v>-567.5395895130166</v>
+        <v>-401.3614894369475</v>
       </c>
     </row>
     <row r="949" spans="1:3">
@@ -10820,7 +10820,7 @@
         <v>44435</v>
       </c>
       <c r="C949">
-        <v>755.1833371687762</v>
+        <v>528.3380529513578</v>
       </c>
     </row>
     <row r="950" spans="1:3">
@@ -10831,7 +10831,7 @@
         <v>44442</v>
       </c>
       <c r="C950">
-        <v>339.0466066847872</v>
+        <v>240.4452579250508</v>
       </c>
     </row>
     <row r="951" spans="1:3">
@@ -10842,7 +10842,7 @@
         <v>44449</v>
       </c>
       <c r="C951">
-        <v>-68.76522351060319</v>
+        <v>-28.89267510574675</v>
       </c>
     </row>
     <row r="952" spans="1:3">
@@ -10853,7 +10853,7 @@
         <v>44456</v>
       </c>
       <c r="C952">
-        <v>-26.67295018720313</v>
+        <v>-14.55744497071715</v>
       </c>
     </row>
     <row r="953" spans="1:3">
@@ -10864,7 +10864,7 @@
         <v>44463</v>
       </c>
       <c r="C953">
-        <v>-93.80544537907201</v>
+        <v>-73.04895303909757</v>
       </c>
     </row>
     <row r="954" spans="1:3">
@@ -10875,7 +10875,7 @@
         <v>44470</v>
       </c>
       <c r="C954">
-        <v>-604.4152405882669</v>
+        <v>-364.6015096195756</v>
       </c>
     </row>
     <row r="955" spans="1:3">
@@ -10886,7 +10886,7 @@
         <v>44477</v>
       </c>
       <c r="C955">
-        <v>147.0105000218797</v>
+        <v>82.04007082808704</v>
       </c>
     </row>
     <row r="956" spans="1:3">
@@ -10897,7 +10897,7 @@
         <v>44484</v>
       </c>
       <c r="C956">
-        <v>73.23346663274336</v>
+        <v>88.41382898452554</v>
       </c>
     </row>
     <row r="957" spans="1:3">
@@ -10908,7 +10908,7 @@
         <v>44491</v>
       </c>
       <c r="C957">
-        <v>95.75776416140624</v>
+        <v>52.4991311517941</v>
       </c>
     </row>
     <row r="958" spans="1:3">
@@ -10919,7 +10919,7 @@
         <v>44498</v>
       </c>
       <c r="C958">
-        <v>59.47063980793584</v>
+        <v>0.7883895296485299</v>
       </c>
     </row>
     <row r="959" spans="1:3">
@@ -10930,7 +10930,7 @@
         <v>44505</v>
       </c>
       <c r="C959">
-        <v>210.2992595817632</v>
+        <v>147.5542926385684</v>
       </c>
     </row>
     <row r="960" spans="1:3">
@@ -10941,7 +10941,7 @@
         <v>44512</v>
       </c>
       <c r="C960">
-        <v>314.8128477352661</v>
+        <v>155.0171183506744</v>
       </c>
     </row>
     <row r="961" spans="1:3">
@@ -10952,7 +10952,7 @@
         <v>44519</v>
       </c>
       <c r="C961">
-        <v>462.9825487375522</v>
+        <v>223.1023580256927</v>
       </c>
     </row>
     <row r="962" spans="1:3">
@@ -10963,7 +10963,7 @@
         <v>44526</v>
       </c>
       <c r="C962">
-        <v>-544.1914893921651</v>
+        <v>-302.4486165026588</v>
       </c>
     </row>
     <row r="963" spans="1:3">
@@ -10974,7 +10974,7 @@
         <v>44533</v>
       </c>
       <c r="C963">
-        <v>400.5999880647158</v>
+        <v>213.8627340716497</v>
       </c>
     </row>
     <row r="964" spans="1:3">
@@ -10985,7 +10985,7 @@
         <v>44540</v>
       </c>
       <c r="C964">
-        <v>88.85799426103728</v>
+        <v>54.71297197997622</v>
       </c>
     </row>
     <row r="965" spans="1:3">
@@ -10996,7 +10996,7 @@
         <v>44547</v>
       </c>
       <c r="C965">
-        <v>-5.897849713141719</v>
+        <v>-22.08747253361181</v>
       </c>
     </row>
     <row r="966" spans="1:3">
@@ -11007,7 +11007,7 @@
         <v>44554</v>
       </c>
       <c r="C966">
-        <v>165.5329333923728</v>
+        <v>82.15895142589615</v>
       </c>
     </row>
     <row r="967" spans="1:3">
@@ -11018,7 +11018,7 @@
         <v>44561</v>
       </c>
       <c r="C967">
-        <v>333.3625905288991</v>
+        <v>194.1128977013534</v>
       </c>
     </row>
     <row r="968" spans="1:3">
@@ -11029,7 +11029,7 @@
         <v>44568</v>
       </c>
       <c r="C968">
-        <v>-68.75671946318758</v>
+        <v>15.42752979320558</v>
       </c>
     </row>
     <row r="969" spans="1:3">
@@ -11040,7 +11040,7 @@
         <v>44575</v>
       </c>
       <c r="C969">
-        <v>260.0046193270819</v>
+        <v>316.3853106061047</v>
       </c>
     </row>
     <row r="970" spans="1:3">
@@ -11051,7 +11051,7 @@
         <v>44582</v>
       </c>
       <c r="C970">
-        <v>-551.9904990318435</v>
+        <v>-347.6166554605082</v>
       </c>
     </row>
     <row r="971" spans="1:3">
@@ -11062,7 +11062,7 @@
         <v>44589</v>
       </c>
       <c r="C971">
-        <v>-205.18790501335</v>
+        <v>-109.3714669813753</v>
       </c>
     </row>
     <row r="972" spans="1:3">
@@ -11084,7 +11084,7 @@
         <v>44603</v>
       </c>
       <c r="C973">
-        <v>656.0363085377107</v>
+        <v>424.1830376109192</v>
       </c>
     </row>
     <row r="974" spans="1:3">
@@ -11095,7 +11095,7 @@
         <v>44610</v>
       </c>
       <c r="C974">
-        <v>-102.9941200435999</v>
+        <v>-44.86515324700279</v>
       </c>
     </row>
     <row r="975" spans="1:3">
@@ -11106,7 +11106,7 @@
         <v>44617</v>
       </c>
       <c r="C975">
-        <v>-707.8866497038418</v>
+        <v>-442.5560306518545</v>
       </c>
     </row>
     <row r="976" spans="1:3">
@@ -11117,7 +11117,7 @@
         <v>44624</v>
       </c>
       <c r="C976">
-        <v>90.45009133845933</v>
+        <v>47.76253247695276</v>
       </c>
     </row>
     <row r="977" spans="1:3">
@@ -11128,7 +11128,7 @@
         <v>44631</v>
       </c>
       <c r="C977">
-        <v>-363.5615445665508</v>
+        <v>-326.7177863812244</v>
       </c>
     </row>
     <row r="978" spans="1:3">
@@ -11139,7 +11139,7 @@
         <v>44638</v>
       </c>
       <c r="C978">
-        <v>180.8245361373251</v>
+        <v>215.3242408396065</v>
       </c>
     </row>
     <row r="979" spans="1:3">
@@ -11150,7 +11150,7 @@
         <v>44645</v>
       </c>
       <c r="C979">
-        <v>107.0266198588742</v>
+        <v>150.4749909786433</v>
       </c>
     </row>
     <row r="980" spans="1:3">
@@ -11161,7 +11161,7 @@
         <v>44652</v>
       </c>
       <c r="C980">
-        <v>34.45887585857116</v>
+        <v>1.49669064234962</v>
       </c>
     </row>
     <row r="981" spans="1:3">
@@ -11172,7 +11172,7 @@
         <v>44659</v>
       </c>
       <c r="C981">
-        <v>-36.42328931545338</v>
+        <v>-96.01202029418948</v>
       </c>
     </row>
     <row r="982" spans="1:3">
@@ -11183,7 +11183,7 @@
         <v>44666</v>
       </c>
       <c r="C982">
-        <v>-220.0867016886677</v>
+        <v>-165.5532650636749</v>
       </c>
     </row>
     <row r="983" spans="1:3">
@@ -11227,7 +11227,7 @@
         <v>44694</v>
       </c>
       <c r="C986">
-        <v>-209.6820185428954</v>
+        <v>-257.6721744083588</v>
       </c>
     </row>
     <row r="987" spans="1:3">
@@ -11535,7 +11535,7 @@
         <v>44890</v>
       </c>
       <c r="C1014">
-        <v>145.6631000451961</v>
+        <v>143.7137823064047</v>
       </c>
     </row>
     <row r="1015" spans="1:3">
@@ -11546,7 +11546,7 @@
         <v>44897</v>
       </c>
       <c r="C1015">
-        <v>304.7308995106093</v>
+        <v>277.2321596324255</v>
       </c>
     </row>
     <row r="1016" spans="1:3">
@@ -11557,7 +11557,7 @@
         <v>44904</v>
       </c>
       <c r="C1016">
-        <v>-466.9076632888907</v>
+        <v>-436.3514048166794</v>
       </c>
     </row>
     <row r="1017" spans="1:3">
@@ -11568,7 +11568,7 @@
         <v>44911</v>
       </c>
       <c r="C1017">
-        <v>-291.6038687285147</v>
+        <v>-260.1734290362763</v>
       </c>
     </row>
     <row r="1018" spans="1:3">
@@ -11579,7 +11579,7 @@
         <v>44918</v>
       </c>
       <c r="C1018">
-        <v>-476.8967185322234</v>
+        <v>-455.4155072434191</v>
       </c>
     </row>
     <row r="1019" spans="1:3">
@@ -11590,7 +11590,7 @@
         <v>44925</v>
       </c>
       <c r="C1019">
-        <v>-196.8266894258258</v>
+        <v>-185.8870364645441</v>
       </c>
     </row>
     <row r="1020" spans="1:3">
@@ -11601,7 +11601,7 @@
         <v>44932</v>
       </c>
       <c r="C1020">
-        <v>484.2627996986836</v>
+        <v>440.1404054881398</v>
       </c>
     </row>
     <row r="1021" spans="1:3">
@@ -11612,7 +11612,7 @@
         <v>44939</v>
       </c>
       <c r="C1021">
-        <v>771.4504595909891</v>
+        <v>691.9171090770546</v>
       </c>
     </row>
     <row r="1022" spans="1:3">
@@ -11623,7 +11623,7 @@
         <v>44946</v>
       </c>
       <c r="C1022">
-        <v>188.0365690458364</v>
+        <v>163.6632510360251</v>
       </c>
     </row>
     <row r="1023" spans="1:3">
@@ -11645,7 +11645,7 @@
         <v>44960</v>
       </c>
       <c r="C1024">
-        <v>1281.661183066169</v>
+        <v>1184.933555141993</v>
       </c>
     </row>
     <row r="1025" spans="1:3">
@@ -11656,7 +11656,7 @@
         <v>44967</v>
       </c>
       <c r="C1025">
-        <v>9.655635569973438</v>
+        <v>18.6913902680659</v>
       </c>
     </row>
     <row r="1026" spans="1:3">
@@ -11667,7 +11667,7 @@
         <v>44974</v>
       </c>
       <c r="C1026">
-        <v>-133.6420441091703</v>
+        <v>-151.5338623662576</v>
       </c>
     </row>
     <row r="1027" spans="1:3">
@@ -11678,7 +11678,7 @@
         <v>44981</v>
       </c>
       <c r="C1027">
-        <v>229.1429638648107</v>
+        <v>203.5259608310144</v>
       </c>
     </row>
     <row r="1028" spans="1:3">
@@ -11689,7 +11689,7 @@
         <v>44988</v>
       </c>
       <c r="C1028">
-        <v>218.0002736458821</v>
+        <v>213.7399271941055</v>
       </c>
     </row>
     <row r="1029" spans="1:3">
@@ -11700,7 +11700,7 @@
         <v>44995</v>
       </c>
       <c r="C1029">
-        <v>-145.1504491978827</v>
+        <v>-129.2016168692001</v>
       </c>
     </row>
     <row r="1030" spans="1:3">
@@ -11711,7 +11711,7 @@
         <v>45002</v>
       </c>
       <c r="C1030">
-        <v>-76.92488177369529</v>
+        <v>-31.53722029392617</v>
       </c>
     </row>
     <row r="1031" spans="1:3">
@@ -11722,7 +11722,7 @@
         <v>45009</v>
       </c>
       <c r="C1031">
-        <v>705.371240322012</v>
+        <v>676.8764566882047</v>
       </c>
     </row>
     <row r="1032" spans="1:3">
@@ -11733,7 +11733,7 @@
         <v>45016</v>
       </c>
       <c r="C1032">
-        <v>-58.82444961578926</v>
+        <v>-56.61748722293478</v>
       </c>
     </row>
     <row r="1033" spans="1:3">
@@ -11744,7 +11744,7 @@
         <v>45023</v>
       </c>
       <c r="C1033">
-        <v>-100.8962956693973</v>
+        <v>-94.99482880607661</v>
       </c>
     </row>
     <row r="1034" spans="1:3">
@@ -11755,7 +11755,7 @@
         <v>45030</v>
       </c>
       <c r="C1034">
-        <v>199.9861906582556</v>
+        <v>198.0811961987486</v>
       </c>
     </row>
     <row r="1035" spans="1:3">
@@ -11766,7 +11766,7 @@
         <v>45037</v>
       </c>
       <c r="C1035">
-        <v>-682.2862612501207</v>
+        <v>-633.3422132218632</v>
       </c>
     </row>
     <row r="1036" spans="1:3">
@@ -11777,7 +11777,7 @@
         <v>45044</v>
       </c>
       <c r="C1036">
-        <v>-125.1944496297445</v>
+        <v>-119.609042962318</v>
       </c>
     </row>
     <row r="1037" spans="1:3">
@@ -11788,7 +11788,7 @@
         <v>45051</v>
       </c>
       <c r="C1037">
-        <v>204.2182823163264</v>
+        <v>194.8668691771908</v>
       </c>
     </row>
     <row r="1038" spans="1:3">
@@ -11799,7 +11799,7 @@
         <v>45058</v>
       </c>
       <c r="C1038">
-        <v>-154.7839433412752</v>
+        <v>-138.1543791338563</v>
       </c>
     </row>
     <row r="1039" spans="1:3">
@@ -11810,7 +11810,7 @@
         <v>45065</v>
       </c>
       <c r="C1039">
-        <v>1041.433754378261</v>
+        <v>955.5748145198152</v>
       </c>
     </row>
     <row r="1040" spans="1:3">
@@ -11821,7 +11821,7 @@
         <v>45072</v>
       </c>
       <c r="C1040">
-        <v>725.9183500003533</v>
+        <v>701.6762031090606</v>
       </c>
     </row>
     <row r="1041" spans="1:3">
@@ -11832,7 +11832,7 @@
         <v>45079</v>
       </c>
       <c r="C1041">
-        <v>507.6047712499187</v>
+        <v>471.9223500128472</v>
       </c>
     </row>
     <row r="1042" spans="1:3">
@@ -11843,7 +11843,7 @@
         <v>45086</v>
       </c>
       <c r="C1042">
-        <v>478.849206037153</v>
+        <v>404.4396804091826</v>
       </c>
     </row>
     <row r="1043" spans="1:3">
@@ -11854,7 +11854,7 @@
         <v>45093</v>
       </c>
       <c r="C1043">
-        <v>917.7528055050989</v>
+        <v>853.8721889743872</v>
       </c>
     </row>
     <row r="1044" spans="1:3">
@@ -11865,7 +11865,7 @@
         <v>45100</v>
       </c>
       <c r="C1044">
-        <v>-112.5509061352283</v>
+        <v>-108.5730032747996</v>
       </c>
     </row>
     <row r="1045" spans="1:3">
@@ -11876,7 +11876,7 @@
         <v>45107</v>
       </c>
       <c r="C1045">
-        <v>-258.6742058029301</v>
+        <v>-233.1965666084347</v>
       </c>
     </row>
     <row r="1046" spans="1:3">
@@ -11887,7 +11887,7 @@
         <v>45114</v>
       </c>
       <c r="C1046">
-        <v>-73.60842189629592</v>
+        <v>-56.69516783858698</v>
       </c>
     </row>
     <row r="1047" spans="1:3">
@@ -11898,7 +11898,7 @@
         <v>45121</v>
       </c>
       <c r="C1047">
-        <v>1498.06006403546</v>
+        <v>1351.671396052783</v>
       </c>
     </row>
     <row r="1048" spans="1:3">
@@ -11909,7 +11909,7 @@
         <v>45128</v>
       </c>
       <c r="C1048">
-        <v>-141.5200161398625</v>
+        <v>-167.8194219289501</v>
       </c>
     </row>
     <row r="1049" spans="1:3">
@@ -11920,7 +11920,7 @@
         <v>45135</v>
       </c>
       <c r="C1049">
-        <v>609.8582172931361</v>
+        <v>567.6678276893883</v>
       </c>
     </row>
     <row r="1050" spans="1:3">
@@ -11931,7 +11931,7 @@
         <v>45142</v>
       </c>
       <c r="C1050">
-        <v>-912.1681078053005</v>
+        <v>-889.7470524534492</v>
       </c>
     </row>
     <row r="1051" spans="1:3">
@@ -11942,7 +11942,7 @@
         <v>45149</v>
       </c>
       <c r="C1051">
-        <v>-341.9763763900271</v>
+        <v>-305.7295079216663</v>
       </c>
     </row>
     <row r="1052" spans="1:3">
@@ -11953,7 +11953,7 @@
         <v>45156</v>
       </c>
       <c r="C1052">
-        <v>-270.3950940964713</v>
+        <v>-196.518842872304</v>
       </c>
     </row>
     <row r="1053" spans="1:3">
@@ -11964,7 +11964,7 @@
         <v>45163</v>
       </c>
       <c r="C1053">
-        <v>190.035625913004</v>
+        <v>184.2489852972167</v>
       </c>
     </row>
     <row r="1054" spans="1:3">
@@ -11975,7 +11975,7 @@
         <v>45170</v>
       </c>
       <c r="C1054">
-        <v>356.5887046860663</v>
+        <v>307.3864442092083</v>
       </c>
     </row>
     <row r="1055" spans="1:3">
@@ -11986,7 +11986,7 @@
         <v>45177</v>
       </c>
       <c r="C1055">
-        <v>-12.93640630575419</v>
+        <v>-18.98661479479379</v>
       </c>
     </row>
     <row r="1056" spans="1:3">
@@ -11997,7 +11997,7 @@
         <v>45184</v>
       </c>
       <c r="C1056">
-        <v>711.8235753840595</v>
+        <v>656.4881650542692</v>
       </c>
     </row>
     <row r="1057" spans="1:3">
@@ -12008,7 +12008,7 @@
         <v>45191</v>
       </c>
       <c r="C1057">
-        <v>-1045.992447087611</v>
+        <v>-975.849779590561</v>
       </c>
     </row>
     <row r="1058" spans="1:3">
@@ -12019,7 +12019,7 @@
         <v>45198</v>
       </c>
       <c r="C1058">
-        <v>53.97292359383628</v>
+        <v>54.96552782235631</v>
       </c>
     </row>
     <row r="1059" spans="1:3">
@@ -12030,7 +12030,7 @@
         <v>45205</v>
       </c>
       <c r="C1059">
-        <v>410.8536532806896</v>
+        <v>446.3687399813311</v>
       </c>
     </row>
     <row r="1060" spans="1:3">
@@ -12041,7 +12041,7 @@
         <v>45212</v>
       </c>
       <c r="C1060">
-        <v>374.0695091940716</v>
+        <v>424.6930749237476</v>
       </c>
     </row>
     <row r="1061" spans="1:3">
@@ -12052,7 +12052,7 @@
         <v>45219</v>
       </c>
       <c r="C1061">
-        <v>-646.9537186201973</v>
+        <v>-657.5270960156994</v>
       </c>
     </row>
     <row r="1062" spans="1:3">
@@ -12063,7 +12063,7 @@
         <v>45226</v>
       </c>
       <c r="C1062">
-        <v>-478.3821887483446</v>
+        <v>-575.0165581066873</v>
       </c>
     </row>
     <row r="1063" spans="1:3">
@@ -12074,7 +12074,7 @@
         <v>45233</v>
       </c>
       <c r="C1063">
-        <v>569.2877417556595</v>
+        <v>612.0011793401791</v>
       </c>
     </row>
     <row r="1064" spans="1:3">
@@ -12085,7 +12085,7 @@
         <v>45240</v>
       </c>
       <c r="C1064">
-        <v>313.4874407946305</v>
+        <v>369.2889469601409</v>
       </c>
     </row>
     <row r="1065" spans="1:3">
@@ -12096,7 +12096,7 @@
         <v>45247</v>
       </c>
       <c r="C1065">
-        <v>602.6450998547905</v>
+        <v>623.8282056899166</v>
       </c>
     </row>
     <row r="1066" spans="1:3">
@@ -12107,7 +12107,7 @@
         <v>45254</v>
       </c>
       <c r="C1066">
-        <v>209.1632139286918</v>
+        <v>141.9132491426592</v>
       </c>
     </row>
     <row r="1067" spans="1:3">
@@ -12118,7 +12118,7 @@
         <v>45261</v>
       </c>
       <c r="C1067">
-        <v>314.7396222747631</v>
+        <v>252.7299438205765</v>
       </c>
     </row>
     <row r="1068" spans="1:3">
@@ -12129,7 +12129,18 @@
         <v>45268</v>
       </c>
       <c r="C1068">
-        <v>60.69811400479978</v>
+        <v>40.73607211671597</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:3">
+      <c r="A1069" s="1">
+        <v>1067</v>
+      </c>
+      <c r="B1069" s="2">
+        <v>45275</v>
+      </c>
+      <c r="C1069">
+        <v>248.3411288560011</v>
       </c>
     </row>
   </sheetData>
